--- a/app.xlsx
+++ b/app.xlsx
@@ -424,7 +424,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0&quot;р.&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0&quot;р.&quot;;[Red]#,##0&quot;р.&quot;"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1228,111 +1228,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1342,18 +1240,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1364,73 +1250,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1440,31 +1261,10 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1474,15 +1274,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1497,15 +1288,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1531,27 +1313,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1559,27 +1323,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1595,24 +1338,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1625,9 +1356,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1639,21 +1367,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1661,15 +1374,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1677,14 +1381,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1698,6 +1399,313 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1997,7 +2005,7 @@
   <dimension ref="A1:W155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="T59" sqref="T59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2021,2244 +2029,2244 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="6"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="156"/>
     </row>
     <row r="3" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="11"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="136"/>
     </row>
     <row r="4" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="130"/>
+      <c r="D4" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="15"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="149"/>
     </row>
     <row r="5" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="15"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="149"/>
     </row>
     <row r="6" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="130"/>
+      <c r="D6" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="15"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="148"/>
+      <c r="Q6" s="148"/>
+      <c r="R6" s="148"/>
+      <c r="S6" s="149"/>
     </row>
     <row r="7" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="149"/>
     </row>
     <row r="8" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="130"/>
+      <c r="D8" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="15"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="149"/>
     </row>
     <row r="9" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="15"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="149"/>
     </row>
     <row r="10" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="130"/>
+      <c r="D10" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="15"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="149"/>
     </row>
     <row r="11" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="15"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="149"/>
     </row>
     <row r="12" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="130"/>
+      <c r="D12" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="15"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="149"/>
     </row>
     <row r="13" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="15"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="149"/>
     </row>
     <row r="14" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="130"/>
+      <c r="D14" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="18" t="s">
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="19"/>
+      <c r="S14" s="160"/>
     </row>
     <row r="15" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="161"/>
     </row>
     <row r="16" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24">
+      <c r="C16" s="138"/>
+      <c r="D16" s="141">
         <v>300000000</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="25"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="141"/>
+      <c r="S16" s="142"/>
     </row>
     <row r="17" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="144"/>
     </row>
     <row r="18" spans="2:23" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
     </row>
     <row r="19" spans="2:23" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="37"/>
-    </row>
-    <row r="20" spans="2:23" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="146"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="146"/>
+      <c r="S19" s="147"/>
+    </row>
+    <row r="20" spans="2:23" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
     </row>
     <row r="21" spans="2:23" ht="12" customHeight="1" thickBot="1">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="45"/>
-    </row>
-    <row r="22" spans="2:23" s="50" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B22" s="46" t="s">
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="114"/>
+    </row>
+    <row r="22" spans="2:23" s="12" customFormat="1" ht="9.75" customHeight="1">
+      <c r="B22" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="49">
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="118">
         <v>14000000</v>
       </c>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-    </row>
-    <row r="23" spans="2:23" s="50" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="52"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="2:23" s="12" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="B23" s="115"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="119"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
     </row>
     <row r="24" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55" t="s">
+      <c r="C24" s="121"/>
+      <c r="D24" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="56" t="s">
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="127" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59">
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="107">
         <v>4000000</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="107">
         <v>0</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="107">
         <v>0</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="107">
         <v>7000000</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="107">
         <v>0</v>
       </c>
-      <c r="I25" s="59">
+      <c r="I25" s="107">
         <v>0</v>
       </c>
-      <c r="J25" s="59">
+      <c r="J25" s="107">
         <v>14000000</v>
       </c>
-      <c r="K25" s="59">
+      <c r="K25" s="107">
         <v>0</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="107">
         <v>0</v>
       </c>
-      <c r="M25" s="59">
+      <c r="M25" s="107">
         <v>21000000</v>
       </c>
-      <c r="N25" s="59">
+      <c r="N25" s="107">
         <v>0</v>
       </c>
-      <c r="O25" s="59">
+      <c r="O25" s="107">
         <v>0</v>
       </c>
-      <c r="P25" s="59">
+      <c r="P25" s="107">
         <v>28000000</v>
       </c>
-      <c r="Q25" s="59">
+      <c r="Q25" s="107">
         <v>0</v>
       </c>
-      <c r="R25" s="59">
+      <c r="R25" s="107">
         <v>0</v>
       </c>
-      <c r="S25" s="60"/>
+      <c r="S25" s="128"/>
     </row>
     <row r="26" spans="2:23" ht="12" customHeight="1">
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63" t="s">
+      <c r="B26" s="124"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="66"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="14"/>
     </row>
     <row r="27" spans="2:23" ht="12" hidden="1" customHeight="1">
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="103">
         <v>20000</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69">
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103">
         <v>27000</v>
       </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="70" t="s">
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="71" t="s">
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71" t="s">
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="66"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="14"/>
     </row>
     <row r="28" spans="2:23" ht="12" customHeight="1">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="74">
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="17">
         <v>20000</v>
       </c>
-      <c r="T28" s="75"/>
+      <c r="T28" s="18"/>
     </row>
     <row r="29" spans="2:23" ht="12" hidden="1" customHeight="1">
-      <c r="B29" s="76"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="69">
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="103">
         <v>22000</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69">
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103">
         <v>30000</v>
       </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69">
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103">
         <v>45000</v>
       </c>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69">
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103">
         <v>68000</v>
       </c>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="70" t="s">
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="75"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="18"/>
     </row>
     <row r="30" spans="2:23" ht="12" customHeight="1">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="74">
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="17">
         <v>30000</v>
       </c>
-      <c r="T30" s="75"/>
+      <c r="T30" s="18"/>
     </row>
     <row r="31" spans="2:23" ht="12" hidden="1" customHeight="1">
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="69">
+      <c r="B31" s="101"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103">
         <v>24000</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69">
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103">
         <v>33000</v>
       </c>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69">
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103">
         <v>49000</v>
       </c>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69">
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103">
         <v>74000</v>
       </c>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69">
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103">
         <v>111000</v>
       </c>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="75"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="18"/>
     </row>
     <row r="32" spans="2:23" ht="12" customHeight="1">
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="74">
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="17">
         <v>50000</v>
       </c>
-      <c r="T32" s="75"/>
+      <c r="T32" s="18"/>
     </row>
     <row r="33" spans="2:21" ht="12" hidden="1" customHeight="1">
-      <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="69">
+      <c r="B33" s="101"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103">
         <v>27000</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69">
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103">
         <v>36000</v>
       </c>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69">
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103">
         <v>54000</v>
       </c>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69">
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103">
         <v>81000</v>
       </c>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69">
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103">
         <v>122000</v>
       </c>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="75"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="18"/>
     </row>
     <row r="34" spans="2:21" ht="12" customHeight="1">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="74">
+      <c r="C34" s="102"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="17">
         <v>90000</v>
       </c>
-      <c r="T34" s="75"/>
+      <c r="T34" s="18"/>
     </row>
     <row r="35" spans="2:21" ht="12" hidden="1" customHeight="1">
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="69">
+      <c r="B35" s="101"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="103">
         <v>29000</v>
       </c>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69">
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103">
         <v>39000</v>
       </c>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69">
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103">
         <v>59000</v>
       </c>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69">
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103">
         <v>89000</v>
       </c>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69">
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103">
         <v>134000</v>
       </c>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="75"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="18"/>
     </row>
     <row r="36" spans="2:21" ht="12" customHeight="1">
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="69"/>
-      <c r="S36" s="74">
+      <c r="C36" s="102"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="17">
         <v>130000</v>
       </c>
-      <c r="T36" s="75"/>
+      <c r="T36" s="18"/>
     </row>
     <row r="37" spans="2:21" ht="3" hidden="1" customHeight="1">
-      <c r="B37" s="78"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="80"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="21"/>
     </row>
     <row r="38" spans="2:21" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="83"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="94"/>
     </row>
     <row r="39" spans="2:21" ht="3" hidden="1" customHeight="1">
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="86"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="24"/>
     </row>
     <row r="40" spans="2:21" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="88"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="26"/>
     </row>
     <row r="41" spans="2:21" ht="12" customHeight="1">
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="91"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="84"/>
     </row>
     <row r="42" spans="2:21" ht="3" customHeight="1">
-      <c r="B42" s="92"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="95"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="30"/>
     </row>
     <row r="43" spans="2:21" ht="11.25" customHeight="1">
-      <c r="B43" s="96" t="s">
+      <c r="B43" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="94"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="94"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="97"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="32"/>
     </row>
     <row r="44" spans="2:21" ht="3" customHeight="1">
-      <c r="B44" s="96"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="97"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="32"/>
     </row>
     <row r="45" spans="2:21" ht="16.899999999999999" customHeight="1">
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="100" t="s">
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="U45" s="101" t="s">
+      <c r="U45" s="95" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="3" customHeight="1">
-      <c r="B46" s="96"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="102"/>
-      <c r="U46" s="103"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="36"/>
+      <c r="U46" s="96"/>
     </row>
     <row r="47" spans="2:21" ht="16.5" customHeight="1">
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
-      <c r="N47" s="105"/>
-      <c r="O47" s="105"/>
-      <c r="P47" s="105"/>
-      <c r="Q47" s="105"/>
-      <c r="R47" s="105"/>
-      <c r="S47" s="100" t="s">
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="98"/>
+      <c r="L47" s="98"/>
+      <c r="M47" s="98"/>
+      <c r="N47" s="98"/>
+      <c r="O47" s="98"/>
+      <c r="P47" s="98"/>
+      <c r="Q47" s="98"/>
+      <c r="R47" s="98"/>
+      <c r="S47" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="U47" s="106" t="s">
+      <c r="U47" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:21" ht="8.25" customHeight="1">
-      <c r="B48" s="104"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
-      <c r="S48" s="102"/>
-      <c r="U48" s="106"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="98"/>
+      <c r="O48" s="98"/>
+      <c r="P48" s="98"/>
+      <c r="Q48" s="98"/>
+      <c r="R48" s="98"/>
+      <c r="S48" s="36"/>
+      <c r="U48" s="99"/>
     </row>
     <row r="49" spans="2:21" ht="16.899999999999999" customHeight="1">
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
-      <c r="Q49" s="94"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="100" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="U49" s="108" t="s">
+      <c r="U49" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:21" ht="3" customHeight="1">
-      <c r="B50" s="96"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="94"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="102"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="36"/>
     </row>
     <row r="51" spans="2:21" ht="16.5" customHeight="1">
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="94"/>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="100" t="s">
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="2:21" ht="3" customHeight="1">
-      <c r="B52" s="96"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="102"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="36"/>
     </row>
     <row r="53" spans="2:21" ht="39" customHeight="1">
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="109"/>
-      <c r="L53" s="109"/>
-      <c r="M53" s="109"/>
-      <c r="N53" s="109"/>
-      <c r="O53" s="109"/>
-      <c r="P53" s="109"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="100" t="s">
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="100"/>
+      <c r="R53" s="100"/>
+      <c r="S53" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="54" spans="2:21" ht="16.899999999999999" customHeight="1">
-      <c r="B54" s="107" t="s">
+      <c r="B54" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="100" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="55" spans="2:21" ht="11.25" customHeight="1">
-      <c r="B55" s="110" t="s">
+      <c r="B55" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="111"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="111"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="111"/>
-      <c r="K55" s="111"/>
-      <c r="L55" s="111"/>
-      <c r="M55" s="111"/>
-      <c r="N55" s="111"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="111"/>
-      <c r="S55" s="112"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="78"/>
     </row>
     <row r="56" spans="2:21" ht="11.25" customHeight="1" thickBot="1">
-      <c r="B56" s="113"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="114"/>
-      <c r="K56" s="114"/>
-      <c r="L56" s="114"/>
-      <c r="M56" s="114"/>
-      <c r="N56" s="114"/>
-      <c r="O56" s="114"/>
-      <c r="P56" s="114"/>
-      <c r="Q56" s="114"/>
-      <c r="R56" s="114"/>
-      <c r="S56" s="115"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="80"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="80"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="80"/>
+      <c r="S56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="3" hidden="1" customHeight="1">
-      <c r="B57" s="116"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="117"/>
-      <c r="J57" s="117"/>
-      <c r="K57" s="117"/>
-      <c r="L57" s="117"/>
-      <c r="M57" s="117"/>
-      <c r="N57" s="117"/>
-      <c r="O57" s="117"/>
-      <c r="P57" s="117"/>
-      <c r="Q57" s="117"/>
-      <c r="R57" s="117"/>
-      <c r="S57" s="118"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="41"/>
     </row>
     <row r="58" spans="2:21" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="119"/>
-      <c r="O58" s="119"/>
-      <c r="P58" s="119"/>
-      <c r="Q58" s="119"/>
-      <c r="R58" s="119"/>
-      <c r="S58" s="120"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="43"/>
     </row>
     <row r="59" spans="2:21" ht="12" customHeight="1">
-      <c r="B59" s="89" t="s">
+      <c r="B59" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="90"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="90"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="90"/>
-      <c r="M59" s="90"/>
-      <c r="N59" s="90"/>
-      <c r="O59" s="90"/>
-      <c r="P59" s="90"/>
-      <c r="Q59" s="90"/>
-      <c r="R59" s="90"/>
-      <c r="S59" s="91"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="83"/>
+      <c r="R59" s="83"/>
+      <c r="S59" s="84"/>
     </row>
     <row r="60" spans="2:21" ht="3" customHeight="1">
-      <c r="B60" s="92"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="94"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="94"/>
-      <c r="O60" s="94"/>
-      <c r="P60" s="94"/>
-      <c r="Q60" s="94"/>
-      <c r="R60" s="94"/>
-      <c r="S60" s="95"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="30"/>
     </row>
     <row r="61" spans="2:21" ht="11.25" customHeight="1">
-      <c r="B61" s="121" t="s">
+      <c r="B61" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="122"/>
-      <c r="L61" s="122"/>
-      <c r="M61" s="122"/>
-      <c r="N61" s="122"/>
-      <c r="O61" s="122"/>
-      <c r="P61" s="122"/>
-      <c r="R61" s="123" t="s">
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="86"/>
+      <c r="M61" s="86"/>
+      <c r="N61" s="86"/>
+      <c r="O61" s="86"/>
+      <c r="P61" s="86"/>
+      <c r="R61" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="S61" s="124">
+      <c r="S61" s="45">
         <f ca="1">L77+1</f>
+        <v>42328</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" ht="13.15" customHeight="1" thickBot="1">
+      <c r="B62" s="87"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="47"/>
+    </row>
+    <row r="63" spans="2:21" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="49"/>
+    </row>
+    <row r="64" spans="2:21" ht="12" customHeight="1">
+      <c r="B64" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="83"/>
+      <c r="N64" s="83"/>
+      <c r="O64" s="83"/>
+      <c r="P64" s="83"/>
+      <c r="Q64" s="83"/>
+      <c r="R64" s="83"/>
+      <c r="S64" s="84"/>
+    </row>
+    <row r="65" spans="2:23" ht="22.5" customHeight="1">
+      <c r="B65" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="86"/>
+      <c r="J65" s="86"/>
+      <c r="K65" s="86"/>
+      <c r="L65" s="86"/>
+      <c r="M65" s="86"/>
+      <c r="N65" s="86"/>
+      <c r="O65" s="86"/>
+      <c r="P65" s="86"/>
+      <c r="Q65" s="86"/>
+      <c r="R65" s="86"/>
+      <c r="S65" s="89"/>
+    </row>
+    <row r="66" spans="2:23" ht="14.25" customHeight="1">
+      <c r="B66" s="85"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="86"/>
+      <c r="K66" s="86"/>
+      <c r="L66" s="86"/>
+      <c r="M66" s="86"/>
+      <c r="N66" s="86"/>
+      <c r="O66" s="86"/>
+      <c r="P66" s="86"/>
+      <c r="Q66" s="86"/>
+      <c r="R66" s="86"/>
+      <c r="S66" s="89"/>
+    </row>
+    <row r="67" spans="2:23" ht="11.25" customHeight="1">
+      <c r="B67" s="85"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="86"/>
+      <c r="K67" s="86"/>
+      <c r="L67" s="86"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="86"/>
+      <c r="O67" s="86"/>
+      <c r="P67" s="86"/>
+      <c r="Q67" s="86"/>
+      <c r="R67" s="86"/>
+      <c r="S67" s="89"/>
+    </row>
+    <row r="68" spans="2:23" ht="11.25" customHeight="1">
+      <c r="B68" s="85"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="86"/>
+      <c r="K68" s="86"/>
+      <c r="L68" s="86"/>
+      <c r="M68" s="86"/>
+      <c r="N68" s="86"/>
+      <c r="O68" s="86"/>
+      <c r="P68" s="86"/>
+      <c r="Q68" s="86"/>
+      <c r="R68" s="86"/>
+      <c r="S68" s="89"/>
+    </row>
+    <row r="69" spans="2:23" ht="11.25" customHeight="1">
+      <c r="B69" s="85"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
+      <c r="K69" s="86"/>
+      <c r="L69" s="86"/>
+      <c r="M69" s="86"/>
+      <c r="N69" s="86"/>
+      <c r="O69" s="86"/>
+      <c r="P69" s="86"/>
+      <c r="Q69" s="86"/>
+      <c r="R69" s="86"/>
+      <c r="S69" s="89"/>
+    </row>
+    <row r="70" spans="2:23" ht="11.25" customHeight="1">
+      <c r="B70" s="85"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="86"/>
+      <c r="I70" s="86"/>
+      <c r="J70" s="86"/>
+      <c r="K70" s="86"/>
+      <c r="L70" s="86"/>
+      <c r="M70" s="86"/>
+      <c r="N70" s="86"/>
+      <c r="O70" s="86"/>
+      <c r="P70" s="86"/>
+      <c r="Q70" s="86"/>
+      <c r="R70" s="86"/>
+      <c r="S70" s="89"/>
+    </row>
+    <row r="71" spans="2:23" ht="11.25" customHeight="1">
+      <c r="B71" s="85"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="86"/>
+      <c r="J71" s="86"/>
+      <c r="K71" s="86"/>
+      <c r="L71" s="86"/>
+      <c r="M71" s="86"/>
+      <c r="N71" s="86"/>
+      <c r="O71" s="86"/>
+      <c r="P71" s="86"/>
+      <c r="Q71" s="86"/>
+      <c r="R71" s="86"/>
+      <c r="S71" s="89"/>
+    </row>
+    <row r="72" spans="2:23" ht="11.25" customHeight="1">
+      <c r="B72" s="85"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="86"/>
+      <c r="J72" s="86"/>
+      <c r="K72" s="86"/>
+      <c r="L72" s="86"/>
+      <c r="M72" s="86"/>
+      <c r="N72" s="86"/>
+      <c r="O72" s="86"/>
+      <c r="P72" s="86"/>
+      <c r="Q72" s="86"/>
+      <c r="R72" s="86"/>
+      <c r="S72" s="89"/>
+    </row>
+    <row r="73" spans="2:23" ht="11.25" customHeight="1">
+      <c r="B73" s="85"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="86"/>
+      <c r="J73" s="86"/>
+      <c r="K73" s="86"/>
+      <c r="L73" s="86"/>
+      <c r="M73" s="86"/>
+      <c r="N73" s="86"/>
+      <c r="O73" s="86"/>
+      <c r="P73" s="86"/>
+      <c r="Q73" s="86"/>
+      <c r="R73" s="86"/>
+      <c r="S73" s="89"/>
+    </row>
+    <row r="74" spans="2:23" ht="11.25" customHeight="1">
+      <c r="B74" s="85"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="86"/>
+      <c r="I74" s="86"/>
+      <c r="J74" s="86"/>
+      <c r="K74" s="86"/>
+      <c r="L74" s="86"/>
+      <c r="M74" s="86"/>
+      <c r="N74" s="86"/>
+      <c r="O74" s="86"/>
+      <c r="P74" s="86"/>
+      <c r="Q74" s="86"/>
+      <c r="R74" s="86"/>
+      <c r="S74" s="89"/>
+    </row>
+    <row r="75" spans="2:23" ht="11.25" customHeight="1">
+      <c r="B75" s="85"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="86"/>
+      <c r="K75" s="86"/>
+      <c r="L75" s="86"/>
+      <c r="M75" s="86"/>
+      <c r="N75" s="86"/>
+      <c r="O75" s="86"/>
+      <c r="P75" s="86"/>
+      <c r="Q75" s="86"/>
+      <c r="R75" s="86"/>
+      <c r="S75" s="89"/>
+    </row>
+    <row r="76" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="52"/>
+      <c r="U76" s="54"/>
+      <c r="V76" s="54"/>
+      <c r="W76" s="54"/>
+    </row>
+    <row r="77" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B77" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="70"/>
+      <c r="D77" s="90"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="90"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="L77" s="91">
+        <f ca="1">TODAY()</f>
         <v>42327</v>
       </c>
-    </row>
-    <row r="62" spans="2:21" ht="13.15" customHeight="1" thickBot="1">
-      <c r="B62" s="125"/>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="126"/>
-      <c r="M62" s="126"/>
-      <c r="N62" s="126"/>
-      <c r="O62" s="126"/>
-      <c r="P62" s="126"/>
-      <c r="Q62" s="127"/>
-      <c r="R62" s="127"/>
-      <c r="S62" s="128"/>
-    </row>
-    <row r="63" spans="2:21" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B63" s="129"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="129"/>
-      <c r="G63" s="129"/>
-      <c r="H63" s="129"/>
-      <c r="I63" s="129"/>
-      <c r="J63" s="129"/>
-      <c r="K63" s="129"/>
-      <c r="L63" s="129"/>
-      <c r="M63" s="129"/>
-      <c r="N63" s="129"/>
-      <c r="O63" s="129"/>
-      <c r="P63" s="129"/>
-      <c r="Q63" s="129"/>
-      <c r="R63" s="129"/>
-      <c r="S63" s="130"/>
-    </row>
-    <row r="64" spans="2:21" ht="12" customHeight="1">
-      <c r="B64" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="90"/>
-      <c r="O64" s="90"/>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="91"/>
-    </row>
-    <row r="65" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B65" s="121" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="122"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="122"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="122"/>
-      <c r="K65" s="122"/>
-      <c r="L65" s="122"/>
-      <c r="M65" s="122"/>
-      <c r="N65" s="122"/>
-      <c r="O65" s="122"/>
-      <c r="P65" s="122"/>
-      <c r="Q65" s="122"/>
-      <c r="R65" s="122"/>
-      <c r="S65" s="131"/>
-    </row>
-    <row r="66" spans="2:23" ht="14.25" customHeight="1">
-      <c r="B66" s="121"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="122"/>
-      <c r="E66" s="122"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="122"/>
-      <c r="I66" s="122"/>
-      <c r="J66" s="122"/>
-      <c r="K66" s="122"/>
-      <c r="L66" s="122"/>
-      <c r="M66" s="122"/>
-      <c r="N66" s="122"/>
-      <c r="O66" s="122"/>
-      <c r="P66" s="122"/>
-      <c r="Q66" s="122"/>
-      <c r="R66" s="122"/>
-      <c r="S66" s="131"/>
-    </row>
-    <row r="67" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B67" s="121"/>
-      <c r="C67" s="122"/>
-      <c r="D67" s="122"/>
-      <c r="E67" s="122"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="122"/>
-      <c r="H67" s="122"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="122"/>
-      <c r="K67" s="122"/>
-      <c r="L67" s="122"/>
-      <c r="M67" s="122"/>
-      <c r="N67" s="122"/>
-      <c r="O67" s="122"/>
-      <c r="P67" s="122"/>
-      <c r="Q67" s="122"/>
-      <c r="R67" s="122"/>
-      <c r="S67" s="131"/>
-    </row>
-    <row r="68" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B68" s="121"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="122"/>
-      <c r="E68" s="122"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="122"/>
-      <c r="H68" s="122"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="122"/>
-      <c r="K68" s="122"/>
-      <c r="L68" s="122"/>
-      <c r="M68" s="122"/>
-      <c r="N68" s="122"/>
-      <c r="O68" s="122"/>
-      <c r="P68" s="122"/>
-      <c r="Q68" s="122"/>
-      <c r="R68" s="122"/>
-      <c r="S68" s="131"/>
-    </row>
-    <row r="69" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B69" s="121"/>
-      <c r="C69" s="122"/>
-      <c r="D69" s="122"/>
-      <c r="E69" s="122"/>
-      <c r="F69" s="122"/>
-      <c r="G69" s="122"/>
-      <c r="H69" s="122"/>
-      <c r="I69" s="122"/>
-      <c r="J69" s="122"/>
-      <c r="K69" s="122"/>
-      <c r="L69" s="122"/>
-      <c r="M69" s="122"/>
-      <c r="N69" s="122"/>
-      <c r="O69" s="122"/>
-      <c r="P69" s="122"/>
-      <c r="Q69" s="122"/>
-      <c r="R69" s="122"/>
-      <c r="S69" s="131"/>
-    </row>
-    <row r="70" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B70" s="121"/>
-      <c r="C70" s="122"/>
-      <c r="D70" s="122"/>
-      <c r="E70" s="122"/>
-      <c r="F70" s="122"/>
-      <c r="G70" s="122"/>
-      <c r="H70" s="122"/>
-      <c r="I70" s="122"/>
-      <c r="J70" s="122"/>
-      <c r="K70" s="122"/>
-      <c r="L70" s="122"/>
-      <c r="M70" s="122"/>
-      <c r="N70" s="122"/>
-      <c r="O70" s="122"/>
-      <c r="P70" s="122"/>
-      <c r="Q70" s="122"/>
-      <c r="R70" s="122"/>
-      <c r="S70" s="131"/>
-    </row>
-    <row r="71" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B71" s="121"/>
-      <c r="C71" s="122"/>
-      <c r="D71" s="122"/>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
-      <c r="G71" s="122"/>
-      <c r="H71" s="122"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="122"/>
-      <c r="L71" s="122"/>
-      <c r="M71" s="122"/>
-      <c r="N71" s="122"/>
-      <c r="O71" s="122"/>
-      <c r="P71" s="122"/>
-      <c r="Q71" s="122"/>
-      <c r="R71" s="122"/>
-      <c r="S71" s="131"/>
-    </row>
-    <row r="72" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B72" s="121"/>
-      <c r="C72" s="122"/>
-      <c r="D72" s="122"/>
-      <c r="E72" s="122"/>
-      <c r="F72" s="122"/>
-      <c r="G72" s="122"/>
-      <c r="H72" s="122"/>
-      <c r="I72" s="122"/>
-      <c r="J72" s="122"/>
-      <c r="K72" s="122"/>
-      <c r="L72" s="122"/>
-      <c r="M72" s="122"/>
-      <c r="N72" s="122"/>
-      <c r="O72" s="122"/>
-      <c r="P72" s="122"/>
-      <c r="Q72" s="122"/>
-      <c r="R72" s="122"/>
-      <c r="S72" s="131"/>
-    </row>
-    <row r="73" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B73" s="121"/>
-      <c r="C73" s="122"/>
-      <c r="D73" s="122"/>
-      <c r="E73" s="122"/>
-      <c r="F73" s="122"/>
-      <c r="G73" s="122"/>
-      <c r="H73" s="122"/>
-      <c r="I73" s="122"/>
-      <c r="J73" s="122"/>
-      <c r="K73" s="122"/>
-      <c r="L73" s="122"/>
-      <c r="M73" s="122"/>
-      <c r="N73" s="122"/>
-      <c r="O73" s="122"/>
-      <c r="P73" s="122"/>
-      <c r="Q73" s="122"/>
-      <c r="R73" s="122"/>
-      <c r="S73" s="131"/>
-    </row>
-    <row r="74" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B74" s="121"/>
-      <c r="C74" s="122"/>
-      <c r="D74" s="122"/>
-      <c r="E74" s="122"/>
-      <c r="F74" s="122"/>
-      <c r="G74" s="122"/>
-      <c r="H74" s="122"/>
-      <c r="I74" s="122"/>
-      <c r="J74" s="122"/>
-      <c r="K74" s="122"/>
-      <c r="L74" s="122"/>
-      <c r="M74" s="122"/>
-      <c r="N74" s="122"/>
-      <c r="O74" s="122"/>
-      <c r="P74" s="122"/>
-      <c r="Q74" s="122"/>
-      <c r="R74" s="122"/>
-      <c r="S74" s="131"/>
-    </row>
-    <row r="75" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B75" s="121"/>
-      <c r="C75" s="122"/>
-      <c r="D75" s="122"/>
-      <c r="E75" s="122"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="122"/>
-      <c r="H75" s="122"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="122"/>
-      <c r="K75" s="122"/>
-      <c r="L75" s="122"/>
-      <c r="M75" s="122"/>
-      <c r="N75" s="122"/>
-      <c r="O75" s="122"/>
-      <c r="P75" s="122"/>
-      <c r="Q75" s="122"/>
-      <c r="R75" s="122"/>
-      <c r="S75" s="131"/>
-    </row>
-    <row r="76" spans="2:23" s="135" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B76" s="132"/>
-      <c r="C76" s="133"/>
-      <c r="D76" s="133"/>
-      <c r="E76" s="133"/>
-      <c r="F76" s="133"/>
-      <c r="G76" s="133"/>
-      <c r="H76" s="133"/>
-      <c r="I76" s="133"/>
-      <c r="J76" s="133"/>
-      <c r="K76" s="133"/>
-      <c r="L76" s="133"/>
-      <c r="M76" s="133"/>
-      <c r="N76" s="133"/>
-      <c r="O76" s="133"/>
-      <c r="P76" s="133"/>
-      <c r="Q76" s="133"/>
-      <c r="R76" s="133"/>
-      <c r="S76" s="134"/>
-      <c r="U76" s="136"/>
-      <c r="V76" s="136"/>
-      <c r="W76" s="136"/>
-    </row>
-    <row r="77" spans="2:23" s="135" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B77" s="137" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="138"/>
-      <c r="D77" s="139"/>
-      <c r="E77" s="139"/>
-      <c r="F77" s="139"/>
-      <c r="G77" s="139"/>
-      <c r="H77" s="139"/>
-      <c r="I77" s="139"/>
-      <c r="J77" s="133"/>
-      <c r="K77" s="133" t="s">
-        <v>46</v>
-      </c>
-      <c r="L77" s="140">
-        <f ca="1">TODAY()</f>
-        <v>42326</v>
-      </c>
-      <c r="M77" s="140"/>
-      <c r="N77" s="133"/>
-      <c r="O77" s="133"/>
-      <c r="P77" s="133"/>
-      <c r="Q77" s="133"/>
-      <c r="R77" s="133"/>
-      <c r="S77" s="134"/>
-      <c r="U77" s="136"/>
-      <c r="V77" s="136"/>
-      <c r="W77" s="136"/>
-    </row>
-    <row r="78" spans="2:23" s="135" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B78" s="132"/>
-      <c r="C78" s="133"/>
-      <c r="D78" s="133"/>
-      <c r="E78" s="133"/>
-      <c r="F78" s="133"/>
-      <c r="G78" s="133"/>
-      <c r="H78" s="133"/>
-      <c r="I78" s="133"/>
-      <c r="J78" s="133"/>
-      <c r="K78" s="133"/>
-      <c r="L78" s="133"/>
-      <c r="M78" s="133"/>
-      <c r="N78" s="133"/>
-      <c r="O78" s="133"/>
-      <c r="P78" s="133"/>
-      <c r="Q78" s="133"/>
-      <c r="R78" s="133"/>
-      <c r="S78" s="134"/>
-      <c r="U78" s="136"/>
-      <c r="V78" s="136"/>
-      <c r="W78" s="136"/>
-    </row>
-    <row r="79" spans="2:23" s="135" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B79" s="137" t="s">
+      <c r="M77" s="91"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="52"/>
+      <c r="U77" s="54"/>
+      <c r="V77" s="54"/>
+      <c r="W77" s="54"/>
+    </row>
+    <row r="78" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B78" s="50"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="51"/>
+      <c r="S78" s="52"/>
+      <c r="U78" s="54"/>
+      <c r="V78" s="54"/>
+      <c r="W78" s="54"/>
+    </row>
+    <row r="79" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B79" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="138"/>
-      <c r="D79" s="141"/>
-      <c r="E79" s="141"/>
-      <c r="F79" s="141"/>
-      <c r="G79" s="141"/>
-      <c r="H79" s="141"/>
-      <c r="I79" s="141"/>
-      <c r="J79" s="142"/>
-      <c r="K79" s="133"/>
-      <c r="L79" s="133"/>
-      <c r="M79" s="133"/>
-      <c r="N79" s="133"/>
-      <c r="Q79" s="143"/>
-      <c r="R79" s="133"/>
-      <c r="S79" s="134"/>
-      <c r="U79" s="136"/>
-      <c r="V79" s="136"/>
-      <c r="W79" s="136"/>
-    </row>
-    <row r="80" spans="2:23" s="135" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B80" s="144" t="s">
+      <c r="C79" s="70"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
+      <c r="Q79" s="56"/>
+      <c r="R79" s="51"/>
+      <c r="S79" s="52"/>
+      <c r="U79" s="54"/>
+      <c r="V79" s="54"/>
+      <c r="W79" s="54"/>
+    </row>
+    <row r="80" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B80" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="133"/>
-      <c r="D80" s="133"/>
-      <c r="E80" s="133"/>
-      <c r="F80" s="133"/>
-      <c r="G80" s="133"/>
-      <c r="H80" s="133"/>
-      <c r="I80" s="133"/>
-      <c r="J80" s="142"/>
-      <c r="K80" s="133"/>
-      <c r="L80" s="133"/>
-      <c r="M80" s="133"/>
-      <c r="N80" s="133"/>
-      <c r="O80" s="133"/>
-      <c r="P80" s="133"/>
-      <c r="Q80" s="133"/>
-      <c r="R80" s="133"/>
-      <c r="S80" s="134"/>
-      <c r="U80" s="136"/>
-      <c r="V80" s="136"/>
-      <c r="W80" s="136"/>
-    </row>
-    <row r="81" spans="2:23" s="135" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B81" s="132"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="133"/>
-      <c r="E81" s="133"/>
-      <c r="F81" s="133"/>
-      <c r="G81" s="133"/>
-      <c r="H81" s="133"/>
-      <c r="I81" s="133"/>
-      <c r="J81" s="142"/>
-      <c r="K81" s="133"/>
-      <c r="L81" s="133"/>
-      <c r="M81" s="133"/>
-      <c r="N81" s="133"/>
-      <c r="O81" s="133"/>
-      <c r="P81" s="133"/>
-      <c r="Q81" s="133"/>
-      <c r="R81" s="133"/>
-      <c r="S81" s="134"/>
-      <c r="U81" s="136"/>
-      <c r="V81" s="136"/>
-      <c r="W81" s="136"/>
-    </row>
-    <row r="82" spans="2:23" s="135" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B82" s="137" t="s">
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="52"/>
+      <c r="U80" s="54"/>
+      <c r="V80" s="54"/>
+      <c r="W80" s="54"/>
+    </row>
+    <row r="81" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B81" s="50"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="52"/>
+      <c r="U81" s="54"/>
+      <c r="V81" s="54"/>
+      <c r="W81" s="54"/>
+    </row>
+    <row r="82" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B82" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="138"/>
-      <c r="D82" s="145"/>
-      <c r="E82" s="145"/>
-      <c r="F82" s="145"/>
-      <c r="G82" s="145"/>
-      <c r="H82" s="145"/>
-      <c r="I82" s="145"/>
-      <c r="J82" s="142"/>
-      <c r="K82" s="133" t="s">
+      <c r="C82" s="70"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="72"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="L82" s="133"/>
-      <c r="M82" s="133"/>
-      <c r="N82" s="133"/>
-      <c r="O82" s="133"/>
-      <c r="P82" s="133"/>
-      <c r="Q82" s="133"/>
-      <c r="R82" s="133"/>
-      <c r="S82" s="134"/>
-      <c r="U82" s="136"/>
-      <c r="V82" s="136"/>
-      <c r="W82" s="136"/>
-    </row>
-    <row r="83" spans="2:23" s="135" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="B83" s="146"/>
-      <c r="C83" s="147"/>
-      <c r="D83" s="147"/>
-      <c r="E83" s="147"/>
-      <c r="F83" s="148"/>
-      <c r="G83" s="148"/>
-      <c r="H83" s="148"/>
-      <c r="I83" s="148"/>
-      <c r="J83" s="148"/>
-      <c r="K83" s="148"/>
-      <c r="L83" s="148"/>
-      <c r="M83" s="148"/>
-      <c r="N83" s="148"/>
-      <c r="O83" s="148"/>
-      <c r="P83" s="148"/>
-      <c r="Q83" s="148"/>
-      <c r="R83" s="148"/>
-      <c r="S83" s="149"/>
-      <c r="U83" s="136"/>
-      <c r="V83" s="136"/>
-      <c r="W83" s="136"/>
-    </row>
-    <row r="84" spans="2:23" s="135" customFormat="1" ht="5.25" customHeight="1">
-      <c r="B84" s="150"/>
-      <c r="C84" s="150"/>
-      <c r="D84" s="150"/>
-      <c r="E84" s="150"/>
-      <c r="F84" s="150"/>
-      <c r="G84" s="150"/>
-      <c r="H84" s="150"/>
-      <c r="I84" s="150"/>
-      <c r="J84" s="150"/>
-      <c r="K84" s="150"/>
-      <c r="L84" s="150"/>
-      <c r="M84" s="150"/>
-      <c r="N84" s="150"/>
-      <c r="O84" s="150"/>
-      <c r="P84" s="150"/>
-      <c r="Q84" s="150"/>
-      <c r="R84" s="150"/>
-      <c r="S84" s="150"/>
-      <c r="U84" s="136"/>
-      <c r="V84" s="136"/>
-      <c r="W84" s="136"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="52"/>
+      <c r="U82" s="54"/>
+      <c r="V82" s="54"/>
+      <c r="W82" s="54"/>
+    </row>
+    <row r="83" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="B83" s="73"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="58"/>
+      <c r="O83" s="58"/>
+      <c r="P83" s="58"/>
+      <c r="Q83" s="58"/>
+      <c r="R83" s="58"/>
+      <c r="S83" s="59"/>
+      <c r="U83" s="54"/>
+      <c r="V83" s="54"/>
+      <c r="W83" s="54"/>
+    </row>
+    <row r="84" spans="2:23" s="53" customFormat="1" ht="5.25" customHeight="1">
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="60"/>
+      <c r="N84" s="60"/>
+      <c r="O84" s="60"/>
+      <c r="P84" s="60"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="60"/>
+      <c r="U84" s="54"/>
+      <c r="V84" s="54"/>
+      <c r="W84" s="54"/>
     </row>
     <row r="85" spans="2:23" ht="36.75" customHeight="1">
-      <c r="B85" s="151"/>
-      <c r="C85" s="151"/>
-      <c r="D85" s="151"/>
-      <c r="E85" s="151"/>
-      <c r="F85" s="151"/>
-      <c r="G85" s="151"/>
-      <c r="H85" s="151"/>
-      <c r="I85" s="151"/>
-      <c r="J85" s="151"/>
-      <c r="K85" s="151"/>
-      <c r="L85" s="151"/>
-      <c r="M85" s="151"/>
-      <c r="N85" s="151"/>
-      <c r="O85" s="151"/>
-      <c r="P85" s="151"/>
-      <c r="Q85" s="151"/>
-      <c r="R85" s="151"/>
-      <c r="S85" s="151"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="75"/>
+      <c r="O85" s="75"/>
+      <c r="P85" s="75"/>
+      <c r="Q85" s="75"/>
+      <c r="R85" s="75"/>
+      <c r="S85" s="75"/>
     </row>
     <row r="86" spans="2:23" ht="12.75" customHeight="1"/>
     <row r="88" spans="2:23" hidden="1"/>
     <row r="89" spans="2:23" ht="18" hidden="1">
-      <c r="B89" s="152">
+      <c r="B89" s="61">
         <v>4000000</v>
       </c>
-      <c r="C89" s="153" t="s">
+      <c r="C89" s="62" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="90" spans="2:23" hidden="1">
-      <c r="B90" s="152">
+      <c r="B90" s="61">
         <v>7000000</v>
       </c>
-      <c r="C90" s="153" t="s">
+      <c r="C90" s="62" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="91" spans="2:23" hidden="1">
-      <c r="B91" s="154">
+      <c r="B91" s="63">
         <v>14000000</v>
       </c>
-      <c r="C91" s="155" t="s">
+      <c r="C91" s="64" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="92" spans="2:23" ht="26.25" hidden="1">
-      <c r="B92" s="152">
+      <c r="B92" s="61">
         <v>21000000</v>
       </c>
-      <c r="C92" s="155" t="s">
+      <c r="C92" s="64" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="93" spans="2:23" ht="18" hidden="1">
-      <c r="B93" s="152">
+      <c r="B93" s="61">
         <v>28000000</v>
       </c>
-      <c r="C93" s="155" t="s">
+      <c r="C93" s="64" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="94" spans="2:23" ht="18" hidden="1">
-      <c r="C94" s="155" t="s">
+      <c r="C94" s="64" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="95" spans="2:23" hidden="1">
-      <c r="C95" s="155" t="s">
+      <c r="C95" s="64" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="96" spans="2:23" hidden="1">
-      <c r="C96" s="155" t="s">
+      <c r="C96" s="64" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="97" spans="3:3" hidden="1">
-      <c r="C97" s="155" t="s">
+      <c r="C97" s="64" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="98" spans="3:3" ht="18" hidden="1">
-      <c r="C98" s="155" t="s">
+      <c r="C98" s="64" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="99" spans="3:3" hidden="1">
-      <c r="C99" s="155" t="s">
+      <c r="C99" s="64" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="100" spans="3:3" ht="18" hidden="1">
-      <c r="C100" s="155" t="s">
+      <c r="C100" s="64" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="101" spans="3:3" hidden="1">
-      <c r="C101" s="155" t="s">
+      <c r="C101" s="64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="102" spans="3:3" ht="18" hidden="1">
-      <c r="C102" s="156" t="s">
+      <c r="C102" s="65" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="103" spans="3:3" hidden="1">
-      <c r="C103" s="155" t="s">
+      <c r="C103" s="64" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="104" spans="3:3" hidden="1">
-      <c r="C104" s="155" t="s">
+      <c r="C104" s="64" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="105" spans="3:3" hidden="1">
-      <c r="C105" s="155" t="s">
+      <c r="C105" s="64" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="106" spans="3:3" ht="18" hidden="1">
-      <c r="C106" s="155" t="s">
+      <c r="C106" s="64" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="107" spans="3:3" hidden="1">
-      <c r="C107" s="155" t="s">
+      <c r="C107" s="64" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="108" spans="3:3" hidden="1">
-      <c r="C108" s="155" t="s">
+      <c r="C108" s="64" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="109" spans="3:3" hidden="1">
-      <c r="C109" s="155" t="s">
+      <c r="C109" s="64" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="110" spans="3:3" hidden="1">
-      <c r="C110" s="155" t="s">
+      <c r="C110" s="64" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="111" spans="3:3" ht="18" hidden="1">
-      <c r="C111" s="155" t="s">
+      <c r="C111" s="64" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="112" spans="3:3" hidden="1">
-      <c r="C112" s="155" t="s">
+      <c r="C112" s="64" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="113" spans="3:3" hidden="1">
-      <c r="C113" s="155" t="s">
+      <c r="C113" s="64" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="114" spans="3:3" hidden="1">
-      <c r="C114" s="155" t="s">
+      <c r="C114" s="64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="115" spans="3:3" hidden="1">
-      <c r="C115" s="155" t="s">
+      <c r="C115" s="64" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="116" spans="3:3" hidden="1">
-      <c r="C116" s="155" t="s">
+      <c r="C116" s="64" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="117" spans="3:3" ht="18" hidden="1">
-      <c r="C117" s="155" t="s">
+      <c r="C117" s="64" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="118" spans="3:3" hidden="1">
-      <c r="C118" s="155" t="s">
+      <c r="C118" s="64" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="119" spans="3:3" hidden="1">
-      <c r="C119" s="155" t="s">
+      <c r="C119" s="64" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="120" spans="3:3" ht="18" hidden="1">
-      <c r="C120" s="155" t="s">
+      <c r="C120" s="64" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="121" spans="3:3" ht="18" hidden="1">
-      <c r="C121" s="155" t="s">
+      <c r="C121" s="64" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="122" spans="3:3" hidden="1">
-      <c r="C122" s="155" t="s">
+      <c r="C122" s="64" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="123" spans="3:3" hidden="1">
-      <c r="C123" s="155" t="s">
+      <c r="C123" s="64" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="124" spans="3:3" ht="18" hidden="1">
-      <c r="C124" s="155" t="s">
+      <c r="C124" s="64" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="125" spans="3:3" hidden="1">
-      <c r="C125" s="155" t="s">
+      <c r="C125" s="64" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="126" spans="3:3" hidden="1">
-      <c r="C126" s="155" t="s">
+      <c r="C126" s="64" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="127" spans="3:3" ht="18" hidden="1">
-      <c r="C127" s="155" t="s">
+      <c r="C127" s="64" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="128" spans="3:3" hidden="1">
-      <c r="C128" s="155" t="s">
+      <c r="C128" s="64" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="129" spans="3:3" ht="18" hidden="1">
-      <c r="C129" s="155" t="s">
+      <c r="C129" s="64" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="130" spans="3:3" hidden="1">
-      <c r="C130" s="155" t="s">
+      <c r="C130" s="64" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="131" spans="3:3" ht="18" hidden="1">
-      <c r="C131" s="156" t="s">
+      <c r="C131" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="132" spans="3:3" ht="26.25" hidden="1">
-      <c r="C132" s="155" t="s">
+      <c r="C132" s="64" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="133" spans="3:3" hidden="1">
-      <c r="C133" s="155" t="s">
+      <c r="C133" s="64" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="134" spans="3:3" hidden="1">
-      <c r="C134" s="155" t="s">
+      <c r="C134" s="64" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="135" spans="3:3" ht="26.25" hidden="1">
-      <c r="C135" s="155" t="s">
+      <c r="C135" s="64" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="136" spans="3:3" ht="18" hidden="1">
-      <c r="C136" s="155" t="s">
+      <c r="C136" s="64" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="137" spans="3:3" hidden="1">
-      <c r="C137" s="157" t="s">
+      <c r="C137" s="66" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="138" spans="3:3" ht="18" hidden="1">
-      <c r="C138" s="155" t="s">
+      <c r="C138" s="64" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="139" spans="3:3" ht="18" hidden="1">
-      <c r="C139" s="155" t="s">
+      <c r="C139" s="64" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="140" spans="3:3" hidden="1">
-      <c r="C140" s="155" t="s">
+      <c r="C140" s="64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="141" spans="3:3" ht="18" hidden="1">
-      <c r="C141" s="155" t="s">
+      <c r="C141" s="64" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="142" spans="3:3" hidden="1">
-      <c r="C142" s="155" t="s">
+      <c r="C142" s="64" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="143" spans="3:3" ht="15.75" hidden="1" thickBot="1">
-      <c r="C143" s="158" t="s">
+      <c r="C143" s="67" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="144" spans="3:3" hidden="1">
-      <c r="C144" s="159" t="s">
+      <c r="C144" s="68" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4274,39 +4282,48 @@
     <row r="154" hidden="1"/>
     <row r="155" hidden="1"/>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B85:S85"/>
-    <mergeCell ref="B55:S56"/>
-    <mergeCell ref="B59:S59"/>
-    <mergeCell ref="B61:P62"/>
-    <mergeCell ref="B64:S64"/>
-    <mergeCell ref="B65:S75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="B38:S38"/>
-    <mergeCell ref="B41:S41"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="B47:R48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="B53:R53"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F36"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="J35:L36"/>
-    <mergeCell ref="M35:O36"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F34"/>
-    <mergeCell ref="G33:I34"/>
-    <mergeCell ref="J33:L34"/>
-    <mergeCell ref="M33:O34"/>
+  <mergeCells count="85">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:S3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:S5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:S7"/>
+    <mergeCell ref="D19:S19"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:S9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:S11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:S13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:Q15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:S17"/>
+    <mergeCell ref="B21:S21"/>
+    <mergeCell ref="B22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D24:R24"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="D26:R26"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J27:L28"/>
+    <mergeCell ref="M27:O28"/>
+    <mergeCell ref="P27:R28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="G29:I30"/>
+    <mergeCell ref="J29:L30"/>
     <mergeCell ref="P33:R34"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="P29:R30"/>
@@ -4318,47 +4335,39 @@
     <mergeCell ref="M31:O32"/>
     <mergeCell ref="P31:R32"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="G29:I30"/>
-    <mergeCell ref="J29:L30"/>
     <mergeCell ref="M29:O30"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="D26:R26"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J27:L28"/>
-    <mergeCell ref="M27:O28"/>
-    <mergeCell ref="P27:R28"/>
-    <mergeCell ref="B21:S21"/>
-    <mergeCell ref="B22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="D24:R24"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:Q15"/>
-    <mergeCell ref="R14:S15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:S17"/>
-    <mergeCell ref="D19:S19"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:S9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:S11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:S13"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:S3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:S5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:S7"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F34"/>
+    <mergeCell ref="G33:I34"/>
+    <mergeCell ref="J33:L34"/>
+    <mergeCell ref="M33:O34"/>
+    <mergeCell ref="B53:R53"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F36"/>
+    <mergeCell ref="G35:I36"/>
+    <mergeCell ref="J35:L36"/>
+    <mergeCell ref="M35:O36"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:S38"/>
+    <mergeCell ref="B41:S41"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="B47:R48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="B85:S85"/>
+    <mergeCell ref="B55:S56"/>
+    <mergeCell ref="B59:S59"/>
+    <mergeCell ref="B61:P62"/>
+    <mergeCell ref="B64:S64"/>
+    <mergeCell ref="B65:S75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="B83:E83"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S45 S53:S54 S47 S51 S49">

--- a/app.xlsx
+++ b/app.xlsx
@@ -1399,137 +1399,127 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1584,127 +1574,137 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2002,6 +2002,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2029,358 +2032,358 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="154" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="156"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="75"/>
     </row>
     <row r="3" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="136"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="78"/>
     </row>
     <row r="4" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="148" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="149"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="82"/>
     </row>
     <row r="5" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B5" s="129"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="149"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
     </row>
     <row r="6" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="148" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="149"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="82"/>
     </row>
     <row r="7" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B7" s="129"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="148"/>
-      <c r="S7" s="149"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="82"/>
     </row>
     <row r="8" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="148" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="149"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="82"/>
     </row>
     <row r="9" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B9" s="129"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="149"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="82"/>
     </row>
     <row r="10" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="148" t="s">
+      <c r="C10" s="80"/>
+      <c r="D10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="149"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="82"/>
     </row>
     <row r="11" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="149"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="82"/>
     </row>
     <row r="12" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="148" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="149"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="82"/>
     </row>
     <row r="13" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="149"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="82"/>
     </row>
     <row r="14" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="131" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="158" t="s">
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="160"/>
+      <c r="S14" s="88"/>
     </row>
     <row r="15" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="159"/>
-      <c r="S15" s="161"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="89"/>
     </row>
     <row r="16" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="138"/>
-      <c r="D16" s="141">
+      <c r="C16" s="95"/>
+      <c r="D16" s="98">
         <v>300000000</v>
       </c>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="142"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="99"/>
     </row>
     <row r="17" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B17" s="139"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="144"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="101"/>
     </row>
     <row r="18" spans="2:23" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B18" s="2"/>
@@ -2407,24 +2410,24 @@
         <v>13</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="145" t="s">
+      <c r="D19" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="146"/>
-      <c r="S19" s="147"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="85"/>
     </row>
     <row r="20" spans="2:23" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B20" s="7"/>
@@ -2450,48 +2453,48 @@
       <c r="W20" s="11"/>
     </row>
     <row r="21" spans="2:23" ht="12" customHeight="1" thickBot="1">
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="114"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="104"/>
     </row>
     <row r="22" spans="2:23" s="12" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="118">
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="108">
         <v>14000000</v>
       </c>
       <c r="U22" s="13"/>
@@ -2499,400 +2502,400 @@
       <c r="W22" s="13"/>
     </row>
     <row r="23" spans="2:23" s="12" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="119"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="109"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
     </row>
     <row r="24" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="126" t="s">
+      <c r="C24" s="111"/>
+      <c r="D24" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="127" t="s">
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="117" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="107">
+      <c r="B25" s="112"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="119">
         <v>4000000</v>
       </c>
-      <c r="E25" s="107">
+      <c r="E25" s="119">
         <v>0</v>
       </c>
-      <c r="F25" s="107">
+      <c r="F25" s="119">
         <v>0</v>
       </c>
-      <c r="G25" s="107">
+      <c r="G25" s="119">
         <v>7000000</v>
       </c>
-      <c r="H25" s="107">
+      <c r="H25" s="119">
         <v>0</v>
       </c>
-      <c r="I25" s="107">
+      <c r="I25" s="119">
         <v>0</v>
       </c>
-      <c r="J25" s="107">
+      <c r="J25" s="119">
         <v>14000000</v>
       </c>
-      <c r="K25" s="107">
+      <c r="K25" s="119">
         <v>0</v>
       </c>
-      <c r="L25" s="107">
+      <c r="L25" s="119">
         <v>0</v>
       </c>
-      <c r="M25" s="107">
+      <c r="M25" s="119">
         <v>21000000</v>
       </c>
-      <c r="N25" s="107">
+      <c r="N25" s="119">
         <v>0</v>
       </c>
-      <c r="O25" s="107">
+      <c r="O25" s="119">
         <v>0</v>
       </c>
-      <c r="P25" s="107">
+      <c r="P25" s="119">
         <v>28000000</v>
       </c>
-      <c r="Q25" s="107">
+      <c r="Q25" s="119">
         <v>0</v>
       </c>
-      <c r="R25" s="107">
+      <c r="R25" s="119">
         <v>0</v>
       </c>
-      <c r="S25" s="128"/>
+      <c r="S25" s="118"/>
     </row>
     <row r="26" spans="2:23" ht="12" customHeight="1">
-      <c r="B26" s="124"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="108" t="s">
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="110"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="122"/>
       <c r="S26" s="14"/>
     </row>
     <row r="27" spans="2:23" ht="12" hidden="1" customHeight="1">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="103">
+      <c r="D27" s="123">
         <v>20000</v>
       </c>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103">
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123">
         <v>27000</v>
       </c>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104" t="s">
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="111" t="s">
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111" t="s">
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
       <c r="S27" s="14"/>
     </row>
     <row r="28" spans="2:23" ht="12" customHeight="1">
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="125"/>
       <c r="S28" s="17">
         <v>20000</v>
       </c>
       <c r="T28" s="18"/>
     </row>
     <row r="29" spans="2:23" ht="12" hidden="1" customHeight="1">
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="103">
+      <c r="B29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="123">
         <v>22000</v>
       </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103">
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123">
         <v>30000</v>
       </c>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103">
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123">
         <v>45000</v>
       </c>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103">
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123">
         <v>68000</v>
       </c>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="104" t="s">
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="124"/>
       <c r="S29" s="17"/>
       <c r="T29" s="18"/>
     </row>
     <row r="30" spans="2:23" ht="12" customHeight="1">
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="124"/>
       <c r="S30" s="17">
         <v>30000</v>
       </c>
       <c r="T30" s="18"/>
     </row>
     <row r="31" spans="2:23" ht="12" hidden="1" customHeight="1">
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103">
+      <c r="B31" s="126"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="123">
         <v>24000</v>
       </c>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103">
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123">
         <v>33000</v>
       </c>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103">
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123">
         <v>49000</v>
       </c>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103">
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123">
         <v>74000</v>
       </c>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103">
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123">
         <v>111000</v>
       </c>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
       <c r="S31" s="17"/>
       <c r="T31" s="18"/>
     </row>
     <row r="32" spans="2:23" ht="12" customHeight="1">
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
       <c r="S32" s="17">
         <v>50000</v>
       </c>
       <c r="T32" s="18"/>
     </row>
     <row r="33" spans="2:21" ht="12" hidden="1" customHeight="1">
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="103">
+      <c r="B33" s="126"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="123">
         <v>27000</v>
       </c>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103">
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123">
         <v>36000</v>
       </c>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103">
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123">
         <v>54000</v>
       </c>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103">
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123">
         <v>81000</v>
       </c>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103">
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123">
         <v>122000</v>
       </c>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
       <c r="S33" s="17"/>
       <c r="T33" s="18"/>
     </row>
     <row r="34" spans="2:21" ht="12" customHeight="1">
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
       <c r="S34" s="17">
         <v>90000</v>
       </c>
       <c r="T34" s="18"/>
     </row>
     <row r="35" spans="2:21" ht="12" hidden="1" customHeight="1">
-      <c r="B35" s="101"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="103">
+      <c r="B35" s="126"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="123">
         <v>29000</v>
       </c>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103">
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123">
         <v>39000</v>
       </c>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103">
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123">
         <v>59000</v>
       </c>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103">
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123">
         <v>89000</v>
       </c>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103">
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123">
         <v>134000</v>
       </c>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="103"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
       <c r="S35" s="17"/>
       <c r="T35" s="18"/>
     </row>
     <row r="36" spans="2:21" ht="12" customHeight="1">
-      <c r="B36" s="101" t="s">
+      <c r="B36" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="102"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="103"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
       <c r="S36" s="17">
         <v>130000</v>
       </c>
@@ -2919,26 +2922,26 @@
       <c r="S37" s="21"/>
     </row>
     <row r="38" spans="2:21" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="94"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="133"/>
+      <c r="O38" s="133"/>
+      <c r="P38" s="133"/>
+      <c r="Q38" s="133"/>
+      <c r="R38" s="133"/>
+      <c r="S38" s="134"/>
     </row>
     <row r="39" spans="2:21" ht="3" hidden="1" customHeight="1">
       <c r="B39" s="22"/>
@@ -2981,26 +2984,26 @@
       <c r="S40" s="26"/>
     </row>
     <row r="41" spans="2:21" ht="12" customHeight="1">
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="83"/>
-      <c r="S41" s="84"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="136"/>
+      <c r="N41" s="136"/>
+      <c r="O41" s="136"/>
+      <c r="P41" s="136"/>
+      <c r="Q41" s="136"/>
+      <c r="R41" s="136"/>
+      <c r="S41" s="137"/>
     </row>
     <row r="42" spans="2:21" ht="3" customHeight="1">
       <c r="B42" s="27"/>
@@ -3087,7 +3090,7 @@
       <c r="S45" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="U45" s="95" t="s">
+      <c r="U45" s="138" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3110,55 +3113,55 @@
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
       <c r="S46" s="36"/>
-      <c r="U46" s="96"/>
+      <c r="U46" s="139"/>
     </row>
     <row r="47" spans="2:21" ht="16.5" customHeight="1">
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="98"/>
-      <c r="J47" s="98"/>
-      <c r="K47" s="98"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="98"/>
-      <c r="N47" s="98"/>
-      <c r="O47" s="98"/>
-      <c r="P47" s="98"/>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="98"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="140"/>
+      <c r="L47" s="140"/>
+      <c r="M47" s="140"/>
+      <c r="N47" s="140"/>
+      <c r="O47" s="140"/>
+      <c r="P47" s="140"/>
+      <c r="Q47" s="140"/>
+      <c r="R47" s="140"/>
       <c r="S47" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="U47" s="99" t="s">
+      <c r="U47" s="141" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:21" ht="8.25" customHeight="1">
-      <c r="B48" s="97"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
-      <c r="O48" s="98"/>
-      <c r="P48" s="98"/>
-      <c r="Q48" s="98"/>
-      <c r="R48" s="98"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="140"/>
+      <c r="K48" s="140"/>
+      <c r="L48" s="140"/>
+      <c r="M48" s="140"/>
+      <c r="N48" s="140"/>
+      <c r="O48" s="140"/>
+      <c r="P48" s="140"/>
+      <c r="Q48" s="140"/>
+      <c r="R48" s="140"/>
       <c r="S48" s="36"/>
-      <c r="U48" s="99"/>
+      <c r="U48" s="141"/>
     </row>
     <row r="49" spans="2:21" ht="16.899999999999999" customHeight="1">
       <c r="B49" s="37" t="s">
@@ -3252,25 +3255,25 @@
       <c r="S52" s="36"/>
     </row>
     <row r="53" spans="2:21" ht="39" customHeight="1">
-      <c r="B53" s="97" t="s">
+      <c r="B53" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="100"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="100"/>
-      <c r="O53" s="100"/>
-      <c r="P53" s="100"/>
-      <c r="Q53" s="100"/>
-      <c r="R53" s="100"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="131"/>
+      <c r="L53" s="131"/>
+      <c r="M53" s="131"/>
+      <c r="N53" s="131"/>
+      <c r="O53" s="131"/>
+      <c r="P53" s="131"/>
+      <c r="Q53" s="131"/>
+      <c r="R53" s="131"/>
       <c r="S53" s="35" t="s">
         <v>31</v>
       </c>
@@ -3300,46 +3303,46 @@
       </c>
     </row>
     <row r="55" spans="2:21" ht="11.25" customHeight="1">
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="77"/>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="78"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="144"/>
+      <c r="L55" s="144"/>
+      <c r="M55" s="144"/>
+      <c r="N55" s="144"/>
+      <c r="O55" s="144"/>
+      <c r="P55" s="144"/>
+      <c r="Q55" s="144"/>
+      <c r="R55" s="144"/>
+      <c r="S55" s="145"/>
     </row>
     <row r="56" spans="2:21" ht="11.25" customHeight="1" thickBot="1">
-      <c r="B56" s="79"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="80"/>
-      <c r="Q56" s="80"/>
-      <c r="R56" s="80"/>
-      <c r="S56" s="81"/>
+      <c r="B56" s="146"/>
+      <c r="C56" s="147"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="147"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="147"/>
+      <c r="J56" s="147"/>
+      <c r="K56" s="147"/>
+      <c r="L56" s="147"/>
+      <c r="M56" s="147"/>
+      <c r="N56" s="147"/>
+      <c r="O56" s="147"/>
+      <c r="P56" s="147"/>
+      <c r="Q56" s="147"/>
+      <c r="R56" s="147"/>
+      <c r="S56" s="148"/>
     </row>
     <row r="57" spans="2:21" ht="3" hidden="1" customHeight="1">
       <c r="B57" s="39"/>
@@ -3382,26 +3385,26 @@
       <c r="S58" s="43"/>
     </row>
     <row r="59" spans="2:21" ht="12" customHeight="1">
-      <c r="B59" s="82" t="s">
+      <c r="B59" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
-      <c r="Q59" s="83"/>
-      <c r="R59" s="83"/>
-      <c r="S59" s="84"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="136"/>
+      <c r="J59" s="136"/>
+      <c r="K59" s="136"/>
+      <c r="L59" s="136"/>
+      <c r="M59" s="136"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="136"/>
+      <c r="P59" s="136"/>
+      <c r="Q59" s="136"/>
+      <c r="R59" s="136"/>
+      <c r="S59" s="137"/>
     </row>
     <row r="60" spans="2:21" ht="3" customHeight="1">
       <c r="B60" s="27"/>
@@ -3424,23 +3427,23 @@
       <c r="S60" s="30"/>
     </row>
     <row r="61" spans="2:21" ht="11.25" customHeight="1">
-      <c r="B61" s="85" t="s">
+      <c r="B61" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="86"/>
-      <c r="L61" s="86"/>
-      <c r="M61" s="86"/>
-      <c r="N61" s="86"/>
-      <c r="O61" s="86"/>
-      <c r="P61" s="86"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="150"/>
+      <c r="F61" s="150"/>
+      <c r="G61" s="150"/>
+      <c r="H61" s="150"/>
+      <c r="I61" s="150"/>
+      <c r="J61" s="150"/>
+      <c r="K61" s="150"/>
+      <c r="L61" s="150"/>
+      <c r="M61" s="150"/>
+      <c r="N61" s="150"/>
+      <c r="O61" s="150"/>
+      <c r="P61" s="150"/>
       <c r="R61" s="44" t="s">
         <v>42</v>
       </c>
@@ -3450,21 +3453,21 @@
       </c>
     </row>
     <row r="62" spans="2:21" ht="13.15" customHeight="1" thickBot="1">
-      <c r="B62" s="87"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="88"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="88"/>
-      <c r="M62" s="88"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="88"/>
-      <c r="P62" s="88"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="152"/>
+      <c r="D62" s="152"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="152"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
+      <c r="I62" s="152"/>
+      <c r="J62" s="152"/>
+      <c r="K62" s="152"/>
+      <c r="L62" s="152"/>
+      <c r="M62" s="152"/>
+      <c r="N62" s="152"/>
+      <c r="O62" s="152"/>
+      <c r="P62" s="152"/>
       <c r="Q62" s="46"/>
       <c r="R62" s="46"/>
       <c r="S62" s="47"/>
@@ -3490,248 +3493,248 @@
       <c r="S63" s="49"/>
     </row>
     <row r="64" spans="2:21" ht="12" customHeight="1">
-      <c r="B64" s="82" t="s">
+      <c r="B64" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="83"/>
-      <c r="N64" s="83"/>
-      <c r="O64" s="83"/>
-      <c r="P64" s="83"/>
-      <c r="Q64" s="83"/>
-      <c r="R64" s="83"/>
-      <c r="S64" s="84"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="136"/>
+      <c r="F64" s="136"/>
+      <c r="G64" s="136"/>
+      <c r="H64" s="136"/>
+      <c r="I64" s="136"/>
+      <c r="J64" s="136"/>
+      <c r="K64" s="136"/>
+      <c r="L64" s="136"/>
+      <c r="M64" s="136"/>
+      <c r="N64" s="136"/>
+      <c r="O64" s="136"/>
+      <c r="P64" s="136"/>
+      <c r="Q64" s="136"/>
+      <c r="R64" s="136"/>
+      <c r="S64" s="137"/>
     </row>
     <row r="65" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B65" s="85" t="s">
+      <c r="B65" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="86"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="86"/>
-      <c r="I65" s="86"/>
-      <c r="J65" s="86"/>
-      <c r="K65" s="86"/>
-      <c r="L65" s="86"/>
-      <c r="M65" s="86"/>
-      <c r="N65" s="86"/>
-      <c r="O65" s="86"/>
-      <c r="P65" s="86"/>
-      <c r="Q65" s="86"/>
-      <c r="R65" s="86"/>
-      <c r="S65" s="89"/>
+      <c r="C65" s="150"/>
+      <c r="D65" s="150"/>
+      <c r="E65" s="150"/>
+      <c r="F65" s="150"/>
+      <c r="G65" s="150"/>
+      <c r="H65" s="150"/>
+      <c r="I65" s="150"/>
+      <c r="J65" s="150"/>
+      <c r="K65" s="150"/>
+      <c r="L65" s="150"/>
+      <c r="M65" s="150"/>
+      <c r="N65" s="150"/>
+      <c r="O65" s="150"/>
+      <c r="P65" s="150"/>
+      <c r="Q65" s="150"/>
+      <c r="R65" s="150"/>
+      <c r="S65" s="153"/>
     </row>
     <row r="66" spans="2:23" ht="14.25" customHeight="1">
-      <c r="B66" s="85"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="86"/>
-      <c r="J66" s="86"/>
-      <c r="K66" s="86"/>
-      <c r="L66" s="86"/>
-      <c r="M66" s="86"/>
-      <c r="N66" s="86"/>
-      <c r="O66" s="86"/>
-      <c r="P66" s="86"/>
-      <c r="Q66" s="86"/>
-      <c r="R66" s="86"/>
-      <c r="S66" s="89"/>
+      <c r="B66" s="149"/>
+      <c r="C66" s="150"/>
+      <c r="D66" s="150"/>
+      <c r="E66" s="150"/>
+      <c r="F66" s="150"/>
+      <c r="G66" s="150"/>
+      <c r="H66" s="150"/>
+      <c r="I66" s="150"/>
+      <c r="J66" s="150"/>
+      <c r="K66" s="150"/>
+      <c r="L66" s="150"/>
+      <c r="M66" s="150"/>
+      <c r="N66" s="150"/>
+      <c r="O66" s="150"/>
+      <c r="P66" s="150"/>
+      <c r="Q66" s="150"/>
+      <c r="R66" s="150"/>
+      <c r="S66" s="153"/>
     </row>
     <row r="67" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B67" s="85"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="86"/>
-      <c r="L67" s="86"/>
-      <c r="M67" s="86"/>
-      <c r="N67" s="86"/>
-      <c r="O67" s="86"/>
-      <c r="P67" s="86"/>
-      <c r="Q67" s="86"/>
-      <c r="R67" s="86"/>
-      <c r="S67" s="89"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="150"/>
+      <c r="E67" s="150"/>
+      <c r="F67" s="150"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="150"/>
+      <c r="I67" s="150"/>
+      <c r="J67" s="150"/>
+      <c r="K67" s="150"/>
+      <c r="L67" s="150"/>
+      <c r="M67" s="150"/>
+      <c r="N67" s="150"/>
+      <c r="O67" s="150"/>
+      <c r="P67" s="150"/>
+      <c r="Q67" s="150"/>
+      <c r="R67" s="150"/>
+      <c r="S67" s="153"/>
     </row>
     <row r="68" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B68" s="85"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="86"/>
-      <c r="I68" s="86"/>
-      <c r="J68" s="86"/>
-      <c r="K68" s="86"/>
-      <c r="L68" s="86"/>
-      <c r="M68" s="86"/>
-      <c r="N68" s="86"/>
-      <c r="O68" s="86"/>
-      <c r="P68" s="86"/>
-      <c r="Q68" s="86"/>
-      <c r="R68" s="86"/>
-      <c r="S68" s="89"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="150"/>
+      <c r="D68" s="150"/>
+      <c r="E68" s="150"/>
+      <c r="F68" s="150"/>
+      <c r="G68" s="150"/>
+      <c r="H68" s="150"/>
+      <c r="I68" s="150"/>
+      <c r="J68" s="150"/>
+      <c r="K68" s="150"/>
+      <c r="L68" s="150"/>
+      <c r="M68" s="150"/>
+      <c r="N68" s="150"/>
+      <c r="O68" s="150"/>
+      <c r="P68" s="150"/>
+      <c r="Q68" s="150"/>
+      <c r="R68" s="150"/>
+      <c r="S68" s="153"/>
     </row>
     <row r="69" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B69" s="85"/>
-      <c r="C69" s="86"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="86"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="86"/>
-      <c r="I69" s="86"/>
-      <c r="J69" s="86"/>
-      <c r="K69" s="86"/>
-      <c r="L69" s="86"/>
-      <c r="M69" s="86"/>
-      <c r="N69" s="86"/>
-      <c r="O69" s="86"/>
-      <c r="P69" s="86"/>
-      <c r="Q69" s="86"/>
-      <c r="R69" s="86"/>
-      <c r="S69" s="89"/>
+      <c r="B69" s="149"/>
+      <c r="C69" s="150"/>
+      <c r="D69" s="150"/>
+      <c r="E69" s="150"/>
+      <c r="F69" s="150"/>
+      <c r="G69" s="150"/>
+      <c r="H69" s="150"/>
+      <c r="I69" s="150"/>
+      <c r="J69" s="150"/>
+      <c r="K69" s="150"/>
+      <c r="L69" s="150"/>
+      <c r="M69" s="150"/>
+      <c r="N69" s="150"/>
+      <c r="O69" s="150"/>
+      <c r="P69" s="150"/>
+      <c r="Q69" s="150"/>
+      <c r="R69" s="150"/>
+      <c r="S69" s="153"/>
     </row>
     <row r="70" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B70" s="85"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="86"/>
-      <c r="I70" s="86"/>
-      <c r="J70" s="86"/>
-      <c r="K70" s="86"/>
-      <c r="L70" s="86"/>
-      <c r="M70" s="86"/>
-      <c r="N70" s="86"/>
-      <c r="O70" s="86"/>
-      <c r="P70" s="86"/>
-      <c r="Q70" s="86"/>
-      <c r="R70" s="86"/>
-      <c r="S70" s="89"/>
+      <c r="B70" s="149"/>
+      <c r="C70" s="150"/>
+      <c r="D70" s="150"/>
+      <c r="E70" s="150"/>
+      <c r="F70" s="150"/>
+      <c r="G70" s="150"/>
+      <c r="H70" s="150"/>
+      <c r="I70" s="150"/>
+      <c r="J70" s="150"/>
+      <c r="K70" s="150"/>
+      <c r="L70" s="150"/>
+      <c r="M70" s="150"/>
+      <c r="N70" s="150"/>
+      <c r="O70" s="150"/>
+      <c r="P70" s="150"/>
+      <c r="Q70" s="150"/>
+      <c r="R70" s="150"/>
+      <c r="S70" s="153"/>
     </row>
     <row r="71" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B71" s="85"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="86"/>
-      <c r="I71" s="86"/>
-      <c r="J71" s="86"/>
-      <c r="K71" s="86"/>
-      <c r="L71" s="86"/>
-      <c r="M71" s="86"/>
-      <c r="N71" s="86"/>
-      <c r="O71" s="86"/>
-      <c r="P71" s="86"/>
-      <c r="Q71" s="86"/>
-      <c r="R71" s="86"/>
-      <c r="S71" s="89"/>
+      <c r="B71" s="149"/>
+      <c r="C71" s="150"/>
+      <c r="D71" s="150"/>
+      <c r="E71" s="150"/>
+      <c r="F71" s="150"/>
+      <c r="G71" s="150"/>
+      <c r="H71" s="150"/>
+      <c r="I71" s="150"/>
+      <c r="J71" s="150"/>
+      <c r="K71" s="150"/>
+      <c r="L71" s="150"/>
+      <c r="M71" s="150"/>
+      <c r="N71" s="150"/>
+      <c r="O71" s="150"/>
+      <c r="P71" s="150"/>
+      <c r="Q71" s="150"/>
+      <c r="R71" s="150"/>
+      <c r="S71" s="153"/>
     </row>
     <row r="72" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B72" s="85"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="86"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="86"/>
-      <c r="I72" s="86"/>
-      <c r="J72" s="86"/>
-      <c r="K72" s="86"/>
-      <c r="L72" s="86"/>
-      <c r="M72" s="86"/>
-      <c r="N72" s="86"/>
-      <c r="O72" s="86"/>
-      <c r="P72" s="86"/>
-      <c r="Q72" s="86"/>
-      <c r="R72" s="86"/>
-      <c r="S72" s="89"/>
+      <c r="B72" s="149"/>
+      <c r="C72" s="150"/>
+      <c r="D72" s="150"/>
+      <c r="E72" s="150"/>
+      <c r="F72" s="150"/>
+      <c r="G72" s="150"/>
+      <c r="H72" s="150"/>
+      <c r="I72" s="150"/>
+      <c r="J72" s="150"/>
+      <c r="K72" s="150"/>
+      <c r="L72" s="150"/>
+      <c r="M72" s="150"/>
+      <c r="N72" s="150"/>
+      <c r="O72" s="150"/>
+      <c r="P72" s="150"/>
+      <c r="Q72" s="150"/>
+      <c r="R72" s="150"/>
+      <c r="S72" s="153"/>
     </row>
     <row r="73" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B73" s="85"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="86"/>
-      <c r="I73" s="86"/>
-      <c r="J73" s="86"/>
-      <c r="K73" s="86"/>
-      <c r="L73" s="86"/>
-      <c r="M73" s="86"/>
-      <c r="N73" s="86"/>
-      <c r="O73" s="86"/>
-      <c r="P73" s="86"/>
-      <c r="Q73" s="86"/>
-      <c r="R73" s="86"/>
-      <c r="S73" s="89"/>
+      <c r="B73" s="149"/>
+      <c r="C73" s="150"/>
+      <c r="D73" s="150"/>
+      <c r="E73" s="150"/>
+      <c r="F73" s="150"/>
+      <c r="G73" s="150"/>
+      <c r="H73" s="150"/>
+      <c r="I73" s="150"/>
+      <c r="J73" s="150"/>
+      <c r="K73" s="150"/>
+      <c r="L73" s="150"/>
+      <c r="M73" s="150"/>
+      <c r="N73" s="150"/>
+      <c r="O73" s="150"/>
+      <c r="P73" s="150"/>
+      <c r="Q73" s="150"/>
+      <c r="R73" s="150"/>
+      <c r="S73" s="153"/>
     </row>
     <row r="74" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B74" s="85"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="86"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="86"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="86"/>
-      <c r="K74" s="86"/>
-      <c r="L74" s="86"/>
-      <c r="M74" s="86"/>
-      <c r="N74" s="86"/>
-      <c r="O74" s="86"/>
-      <c r="P74" s="86"/>
-      <c r="Q74" s="86"/>
-      <c r="R74" s="86"/>
-      <c r="S74" s="89"/>
+      <c r="B74" s="149"/>
+      <c r="C74" s="150"/>
+      <c r="D74" s="150"/>
+      <c r="E74" s="150"/>
+      <c r="F74" s="150"/>
+      <c r="G74" s="150"/>
+      <c r="H74" s="150"/>
+      <c r="I74" s="150"/>
+      <c r="J74" s="150"/>
+      <c r="K74" s="150"/>
+      <c r="L74" s="150"/>
+      <c r="M74" s="150"/>
+      <c r="N74" s="150"/>
+      <c r="O74" s="150"/>
+      <c r="P74" s="150"/>
+      <c r="Q74" s="150"/>
+      <c r="R74" s="150"/>
+      <c r="S74" s="153"/>
     </row>
     <row r="75" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B75" s="85"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="86"/>
-      <c r="G75" s="86"/>
-      <c r="H75" s="86"/>
-      <c r="I75" s="86"/>
-      <c r="J75" s="86"/>
-      <c r="K75" s="86"/>
-      <c r="L75" s="86"/>
-      <c r="M75" s="86"/>
-      <c r="N75" s="86"/>
-      <c r="O75" s="86"/>
-      <c r="P75" s="86"/>
-      <c r="Q75" s="86"/>
-      <c r="R75" s="86"/>
-      <c r="S75" s="89"/>
+      <c r="B75" s="149"/>
+      <c r="C75" s="150"/>
+      <c r="D75" s="150"/>
+      <c r="E75" s="150"/>
+      <c r="F75" s="150"/>
+      <c r="G75" s="150"/>
+      <c r="H75" s="150"/>
+      <c r="I75" s="150"/>
+      <c r="J75" s="150"/>
+      <c r="K75" s="150"/>
+      <c r="L75" s="150"/>
+      <c r="M75" s="150"/>
+      <c r="N75" s="150"/>
+      <c r="O75" s="150"/>
+      <c r="P75" s="150"/>
+      <c r="Q75" s="150"/>
+      <c r="R75" s="150"/>
+      <c r="S75" s="153"/>
     </row>
     <row r="76" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
       <c r="B76" s="50"/>
@@ -3757,25 +3760,25 @@
       <c r="W76" s="54"/>
     </row>
     <row r="77" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B77" s="69" t="s">
+      <c r="B77" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="90"/>
-      <c r="H77" s="90"/>
-      <c r="I77" s="90"/>
+      <c r="C77" s="155"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="156"/>
+      <c r="F77" s="156"/>
+      <c r="G77" s="156"/>
+      <c r="H77" s="156"/>
+      <c r="I77" s="156"/>
       <c r="J77" s="51"/>
       <c r="K77" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="L77" s="91">
+      <c r="L77" s="157">
         <f ca="1">TODAY()</f>
         <v>42327</v>
       </c>
-      <c r="M77" s="91"/>
+      <c r="M77" s="157"/>
       <c r="N77" s="51"/>
       <c r="O77" s="51"/>
       <c r="P77" s="51"/>
@@ -3810,16 +3813,16 @@
       <c r="W78" s="54"/>
     </row>
     <row r="79" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B79" s="69" t="s">
+      <c r="B79" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="70"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
+      <c r="C79" s="155"/>
+      <c r="D79" s="158"/>
+      <c r="E79" s="158"/>
+      <c r="F79" s="158"/>
+      <c r="G79" s="158"/>
+      <c r="H79" s="158"/>
+      <c r="I79" s="158"/>
       <c r="J79" s="55"/>
       <c r="K79" s="51"/>
       <c r="L79" s="51"/>
@@ -3881,16 +3884,16 @@
       <c r="W81" s="54"/>
     </row>
     <row r="82" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B82" s="69" t="s">
+      <c r="B82" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="70"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="72"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="159"/>
+      <c r="E82" s="159"/>
+      <c r="F82" s="159"/>
+      <c r="G82" s="159"/>
+      <c r="H82" s="159"/>
+      <c r="I82" s="159"/>
       <c r="J82" s="55"/>
       <c r="K82" s="51" t="s">
         <v>50</v>
@@ -3908,10 +3911,10 @@
       <c r="W82" s="54"/>
     </row>
     <row r="83" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="B83" s="73"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
+      <c r="B83" s="160"/>
+      <c r="C83" s="161"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="161"/>
       <c r="F83" s="58"/>
       <c r="G83" s="58"/>
       <c r="H83" s="58"/>
@@ -3954,24 +3957,24 @@
       <c r="W84" s="54"/>
     </row>
     <row r="85" spans="2:23" ht="36.75" customHeight="1">
-      <c r="B85" s="75"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="75"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="75"/>
-      <c r="S85" s="75"/>
+      <c r="B85" s="142"/>
+      <c r="C85" s="142"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="142"/>
+      <c r="F85" s="142"/>
+      <c r="G85" s="142"/>
+      <c r="H85" s="142"/>
+      <c r="I85" s="142"/>
+      <c r="J85" s="142"/>
+      <c r="K85" s="142"/>
+      <c r="L85" s="142"/>
+      <c r="M85" s="142"/>
+      <c r="N85" s="142"/>
+      <c r="O85" s="142"/>
+      <c r="P85" s="142"/>
+      <c r="Q85" s="142"/>
+      <c r="R85" s="142"/>
+      <c r="S85" s="142"/>
     </row>
     <row r="86" spans="2:23" ht="12.75" customHeight="1"/>
     <row r="88" spans="2:23" hidden="1"/>
@@ -4283,47 +4286,34 @@
     <row r="155" hidden="1"/>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:S3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:S5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:S7"/>
-    <mergeCell ref="D19:S19"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:S9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:S11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:S13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:Q15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:S17"/>
-    <mergeCell ref="B21:S21"/>
-    <mergeCell ref="B22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="D24:R24"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="D26:R26"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J27:L28"/>
-    <mergeCell ref="M27:O28"/>
-    <mergeCell ref="P27:R28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="G29:I30"/>
-    <mergeCell ref="J29:L30"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="B47:R48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="B85:S85"/>
+    <mergeCell ref="B55:S56"/>
+    <mergeCell ref="B59:S59"/>
+    <mergeCell ref="B61:P62"/>
+    <mergeCell ref="B64:S64"/>
+    <mergeCell ref="B65:S75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="M33:O34"/>
+    <mergeCell ref="B53:R53"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F36"/>
+    <mergeCell ref="G35:I36"/>
+    <mergeCell ref="J35:L36"/>
+    <mergeCell ref="M35:O36"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:S38"/>
+    <mergeCell ref="B41:S41"/>
     <mergeCell ref="P33:R34"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="P29:R30"/>
@@ -4340,34 +4330,47 @@
     <mergeCell ref="D33:F34"/>
     <mergeCell ref="G33:I34"/>
     <mergeCell ref="J33:L34"/>
-    <mergeCell ref="M33:O34"/>
-    <mergeCell ref="B53:R53"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F36"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="J35:L36"/>
-    <mergeCell ref="M35:O36"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:S38"/>
-    <mergeCell ref="B41:S41"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="B47:R48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="B85:S85"/>
-    <mergeCell ref="B55:S56"/>
-    <mergeCell ref="B59:S59"/>
-    <mergeCell ref="B61:P62"/>
-    <mergeCell ref="B64:S64"/>
-    <mergeCell ref="B65:S75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="G29:I30"/>
+    <mergeCell ref="J29:L30"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J27:L28"/>
+    <mergeCell ref="M27:O28"/>
+    <mergeCell ref="P27:R28"/>
+    <mergeCell ref="B21:S21"/>
+    <mergeCell ref="B22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D24:R24"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="D26:R26"/>
+    <mergeCell ref="D19:S19"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:S9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:S11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:S13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:Q15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:S17"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:S3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:S5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:S7"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S45 S53:S54 S47 S51 S49">
@@ -4383,6 +4386,7 @@
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" display="Client@ABC.com"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/app.xlsx
+++ b/app.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="app" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">app!$B$2:$S$83</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -1399,39 +1402,200 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1446,18 +1610,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1521,190 +1673,41 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2002,13 +2005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:W155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T59" sqref="T59"/>
+      <selection activeCell="S83" sqref="B2:S83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2032,358 +2032,358 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="73" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="75"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="158"/>
     </row>
     <row r="3" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="78"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="161"/>
     </row>
     <row r="4" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="133"/>
+      <c r="D4" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="82"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="135"/>
     </row>
     <row r="5" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="135"/>
     </row>
     <row r="6" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81" t="s">
+      <c r="C6" s="133"/>
+      <c r="D6" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="82"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="135"/>
     </row>
     <row r="7" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="82"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="135"/>
     </row>
     <row r="8" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81" t="s">
+      <c r="C8" s="133"/>
+      <c r="D8" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="82"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="135"/>
     </row>
     <row r="9" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="82"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="135"/>
     </row>
     <row r="10" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81" t="s">
+      <c r="C10" s="133"/>
+      <c r="D10" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="82"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="135"/>
     </row>
     <row r="11" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="82"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="135"/>
     </row>
     <row r="12" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81" t="s">
+      <c r="C12" s="133"/>
+      <c r="D12" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="82"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="135"/>
     </row>
     <row r="13" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="82"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="135"/>
     </row>
     <row r="14" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="90" t="s">
+      <c r="C14" s="133"/>
+      <c r="D14" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="86" t="s">
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="88"/>
+      <c r="S14" s="138"/>
     </row>
     <row r="15" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="89"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="139"/>
     </row>
     <row r="16" spans="2:19" ht="9.9499999999999993" customHeight="1">
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="98">
+      <c r="C16" s="145"/>
+      <c r="D16" s="148">
         <v>300000000</v>
       </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="99"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="149"/>
     </row>
     <row r="17" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="101"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="150"/>
+      <c r="R17" s="150"/>
+      <c r="S17" s="151"/>
     </row>
     <row r="18" spans="2:23" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B18" s="2"/>
@@ -2410,24 +2410,24 @@
         <v>13</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="85"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="131"/>
     </row>
     <row r="20" spans="2:23" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B20" s="7"/>
@@ -2453,48 +2453,48 @@
       <c r="W20" s="11"/>
     </row>
     <row r="21" spans="2:23" ht="12" customHeight="1" thickBot="1">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="104"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="110"/>
     </row>
     <row r="22" spans="2:23" s="12" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="108">
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="114">
         <v>14000000</v>
       </c>
       <c r="U22" s="13"/>
@@ -2502,400 +2502,400 @@
       <c r="W22" s="13"/>
     </row>
     <row r="23" spans="2:23" s="12" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B23" s="105"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="109"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="115"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
     </row>
     <row r="24" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="116" t="s">
+      <c r="C24" s="117"/>
+      <c r="D24" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="117" t="s">
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="123" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B25" s="112"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="119">
+      <c r="B25" s="118"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="125">
         <v>4000000</v>
       </c>
-      <c r="E25" s="119">
+      <c r="E25" s="125">
         <v>0</v>
       </c>
-      <c r="F25" s="119">
+      <c r="F25" s="125">
         <v>0</v>
       </c>
-      <c r="G25" s="119">
+      <c r="G25" s="125">
         <v>7000000</v>
       </c>
-      <c r="H25" s="119">
+      <c r="H25" s="125">
         <v>0</v>
       </c>
-      <c r="I25" s="119">
+      <c r="I25" s="125">
         <v>0</v>
       </c>
-      <c r="J25" s="119">
+      <c r="J25" s="125">
         <v>14000000</v>
       </c>
-      <c r="K25" s="119">
+      <c r="K25" s="125">
         <v>0</v>
       </c>
-      <c r="L25" s="119">
+      <c r="L25" s="125">
         <v>0</v>
       </c>
-      <c r="M25" s="119">
+      <c r="M25" s="125">
         <v>21000000</v>
       </c>
-      <c r="N25" s="119">
+      <c r="N25" s="125">
         <v>0</v>
       </c>
-      <c r="O25" s="119">
+      <c r="O25" s="125">
         <v>0</v>
       </c>
-      <c r="P25" s="119">
+      <c r="P25" s="125">
         <v>28000000</v>
       </c>
-      <c r="Q25" s="119">
+      <c r="Q25" s="125">
         <v>0</v>
       </c>
-      <c r="R25" s="119">
+      <c r="R25" s="125">
         <v>0</v>
       </c>
-      <c r="S25" s="118"/>
+      <c r="S25" s="124"/>
     </row>
     <row r="26" spans="2:23" ht="12" customHeight="1">
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="120" t="s">
+      <c r="B26" s="120"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="122"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="128"/>
       <c r="S26" s="14"/>
     </row>
     <row r="27" spans="2:23" ht="12" hidden="1" customHeight="1">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="123">
+      <c r="D27" s="97">
         <v>20000</v>
       </c>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123">
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97">
         <v>27000</v>
       </c>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124" t="s">
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="125" t="s">
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125" t="s">
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
       <c r="S27" s="14"/>
     </row>
     <row r="28" spans="2:23" ht="12" customHeight="1">
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="127"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="125"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
       <c r="S28" s="17">
         <v>20000</v>
       </c>
       <c r="T28" s="18"/>
     </row>
     <row r="29" spans="2:23" ht="12" hidden="1" customHeight="1">
-      <c r="B29" s="128"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="123">
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="97">
         <v>22000</v>
       </c>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123">
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97">
         <v>30000</v>
       </c>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123">
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97">
         <v>45000</v>
       </c>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123">
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97">
         <v>68000</v>
       </c>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="124" t="s">
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="Q29" s="124"/>
-      <c r="R29" s="124"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
       <c r="S29" s="17"/>
       <c r="T29" s="18"/>
     </row>
     <row r="30" spans="2:23" ht="12" customHeight="1">
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="123"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="124"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
       <c r="S30" s="17">
         <v>30000</v>
       </c>
       <c r="T30" s="18"/>
     </row>
     <row r="31" spans="2:23" ht="12" hidden="1" customHeight="1">
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="123">
+      <c r="B31" s="99"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="97">
         <v>24000</v>
       </c>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123">
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97">
         <v>33000</v>
       </c>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123">
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97">
         <v>49000</v>
       </c>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123">
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97">
         <v>74000</v>
       </c>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123">
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97">
         <v>111000</v>
       </c>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
       <c r="S31" s="17"/>
       <c r="T31" s="18"/>
     </row>
     <row r="32" spans="2:23" ht="12" customHeight="1">
-      <c r="B32" s="126" t="s">
+      <c r="B32" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="127"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
       <c r="S32" s="17">
         <v>50000</v>
       </c>
       <c r="T32" s="18"/>
     </row>
     <row r="33" spans="2:21" ht="12" hidden="1" customHeight="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="123">
+      <c r="B33" s="99"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="97">
         <v>27000</v>
       </c>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123">
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97">
         <v>36000</v>
       </c>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123">
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97">
         <v>54000</v>
       </c>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123">
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97">
         <v>81000</v>
       </c>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123">
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97">
         <v>122000</v>
       </c>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
       <c r="S33" s="17"/>
       <c r="T33" s="18"/>
     </row>
     <row r="34" spans="2:21" ht="12" customHeight="1">
-      <c r="B34" s="126" t="s">
+      <c r="B34" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="127"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
       <c r="S34" s="17">
         <v>90000</v>
       </c>
       <c r="T34" s="18"/>
     </row>
     <row r="35" spans="2:21" ht="12" hidden="1" customHeight="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="123">
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="97">
         <v>29000</v>
       </c>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123">
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97">
         <v>39000</v>
       </c>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123">
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97">
         <v>59000</v>
       </c>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123">
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97">
         <v>89000</v>
       </c>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123">
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97">
         <v>134000</v>
       </c>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="97"/>
       <c r="S35" s="17"/>
       <c r="T35" s="18"/>
     </row>
     <row r="36" spans="2:21" ht="12" customHeight="1">
-      <c r="B36" s="126" t="s">
+      <c r="B36" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="127"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
       <c r="S36" s="17">
         <v>130000</v>
       </c>
@@ -2922,26 +2922,26 @@
       <c r="S37" s="21"/>
     </row>
     <row r="38" spans="2:21" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B38" s="132" t="s">
+      <c r="B38" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="133"/>
-      <c r="N38" s="133"/>
-      <c r="O38" s="133"/>
-      <c r="P38" s="133"/>
-      <c r="Q38" s="133"/>
-      <c r="R38" s="133"/>
-      <c r="S38" s="134"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
+      <c r="S38" s="103"/>
     </row>
     <row r="39" spans="2:21" ht="3" hidden="1" customHeight="1">
       <c r="B39" s="22"/>
@@ -2984,26 +2984,26 @@
       <c r="S40" s="26"/>
     </row>
     <row r="41" spans="2:21" ht="12" customHeight="1">
-      <c r="B41" s="135" t="s">
+      <c r="B41" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="136"/>
-      <c r="N41" s="136"/>
-      <c r="O41" s="136"/>
-      <c r="P41" s="136"/>
-      <c r="Q41" s="136"/>
-      <c r="R41" s="136"/>
-      <c r="S41" s="137"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="85"/>
     </row>
     <row r="42" spans="2:21" ht="3" customHeight="1">
       <c r="B42" s="27"/>
@@ -3090,7 +3090,7 @@
       <c r="S45" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="U45" s="138" t="s">
+      <c r="U45" s="71" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3113,55 +3113,55 @@
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
       <c r="S46" s="36"/>
-      <c r="U46" s="139"/>
+      <c r="U46" s="72"/>
     </row>
     <row r="47" spans="2:21" ht="16.5" customHeight="1">
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="140"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="140"/>
-      <c r="L47" s="140"/>
-      <c r="M47" s="140"/>
-      <c r="N47" s="140"/>
-      <c r="O47" s="140"/>
-      <c r="P47" s="140"/>
-      <c r="Q47" s="140"/>
-      <c r="R47" s="140"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
       <c r="S47" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="U47" s="141" t="s">
+      <c r="U47" s="75" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:21" ht="8.25" customHeight="1">
-      <c r="B48" s="130"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="140"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="140"/>
-      <c r="K48" s="140"/>
-      <c r="L48" s="140"/>
-      <c r="M48" s="140"/>
-      <c r="N48" s="140"/>
-      <c r="O48" s="140"/>
-      <c r="P48" s="140"/>
-      <c r="Q48" s="140"/>
-      <c r="R48" s="140"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
       <c r="S48" s="36"/>
-      <c r="U48" s="141"/>
+      <c r="U48" s="75"/>
     </row>
     <row r="49" spans="2:21" ht="16.899999999999999" customHeight="1">
       <c r="B49" s="37" t="s">
@@ -3255,25 +3255,25 @@
       <c r="S52" s="36"/>
     </row>
     <row r="53" spans="2:21" ht="39" customHeight="1">
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="131"/>
-      <c r="L53" s="131"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="131"/>
-      <c r="O53" s="131"/>
-      <c r="P53" s="131"/>
-      <c r="Q53" s="131"/>
-      <c r="R53" s="131"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="98"/>
+      <c r="R53" s="98"/>
       <c r="S53" s="35" t="s">
         <v>31</v>
       </c>
@@ -3303,46 +3303,46 @@
       </c>
     </row>
     <row r="55" spans="2:21" ht="11.25" customHeight="1">
-      <c r="B55" s="143" t="s">
+      <c r="B55" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="144"/>
-      <c r="D55" s="144"/>
-      <c r="E55" s="144"/>
-      <c r="F55" s="144"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="144"/>
-      <c r="I55" s="144"/>
-      <c r="J55" s="144"/>
-      <c r="K55" s="144"/>
-      <c r="L55" s="144"/>
-      <c r="M55" s="144"/>
-      <c r="N55" s="144"/>
-      <c r="O55" s="144"/>
-      <c r="P55" s="144"/>
-      <c r="Q55" s="144"/>
-      <c r="R55" s="144"/>
-      <c r="S55" s="145"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="78"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="78"/>
+      <c r="R55" s="78"/>
+      <c r="S55" s="79"/>
     </row>
     <row r="56" spans="2:21" ht="11.25" customHeight="1" thickBot="1">
-      <c r="B56" s="146"/>
-      <c r="C56" s="147"/>
-      <c r="D56" s="147"/>
-      <c r="E56" s="147"/>
-      <c r="F56" s="147"/>
-      <c r="G56" s="147"/>
-      <c r="H56" s="147"/>
-      <c r="I56" s="147"/>
-      <c r="J56" s="147"/>
-      <c r="K56" s="147"/>
-      <c r="L56" s="147"/>
-      <c r="M56" s="147"/>
-      <c r="N56" s="147"/>
-      <c r="O56" s="147"/>
-      <c r="P56" s="147"/>
-      <c r="Q56" s="147"/>
-      <c r="R56" s="147"/>
-      <c r="S56" s="148"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="81"/>
+      <c r="P56" s="81"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="81"/>
+      <c r="S56" s="82"/>
     </row>
     <row r="57" spans="2:21" ht="3" hidden="1" customHeight="1">
       <c r="B57" s="39"/>
@@ -3385,26 +3385,26 @@
       <c r="S58" s="43"/>
     </row>
     <row r="59" spans="2:21" ht="12" customHeight="1">
-      <c r="B59" s="135" t="s">
+      <c r="B59" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
-      <c r="J59" s="136"/>
-      <c r="K59" s="136"/>
-      <c r="L59" s="136"/>
-      <c r="M59" s="136"/>
-      <c r="N59" s="136"/>
-      <c r="O59" s="136"/>
-      <c r="P59" s="136"/>
-      <c r="Q59" s="136"/>
-      <c r="R59" s="136"/>
-      <c r="S59" s="137"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="84"/>
+      <c r="R59" s="84"/>
+      <c r="S59" s="85"/>
     </row>
     <row r="60" spans="2:21" ht="3" customHeight="1">
       <c r="B60" s="27"/>
@@ -3427,23 +3427,23 @@
       <c r="S60" s="30"/>
     </row>
     <row r="61" spans="2:21" ht="11.25" customHeight="1">
-      <c r="B61" s="149" t="s">
+      <c r="B61" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="150"/>
-      <c r="D61" s="150"/>
-      <c r="E61" s="150"/>
-      <c r="F61" s="150"/>
-      <c r="G61" s="150"/>
-      <c r="H61" s="150"/>
-      <c r="I61" s="150"/>
-      <c r="J61" s="150"/>
-      <c r="K61" s="150"/>
-      <c r="L61" s="150"/>
-      <c r="M61" s="150"/>
-      <c r="N61" s="150"/>
-      <c r="O61" s="150"/>
-      <c r="P61" s="150"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="87"/>
+      <c r="M61" s="87"/>
+      <c r="N61" s="87"/>
+      <c r="O61" s="87"/>
+      <c r="P61" s="87"/>
       <c r="R61" s="44" t="s">
         <v>42</v>
       </c>
@@ -3453,21 +3453,21 @@
       </c>
     </row>
     <row r="62" spans="2:21" ht="13.15" customHeight="1" thickBot="1">
-      <c r="B62" s="151"/>
-      <c r="C62" s="152"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="152"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="152"/>
-      <c r="I62" s="152"/>
-      <c r="J62" s="152"/>
-      <c r="K62" s="152"/>
-      <c r="L62" s="152"/>
-      <c r="M62" s="152"/>
-      <c r="N62" s="152"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="152"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="89"/>
+      <c r="L62" s="89"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="89"/>
+      <c r="P62" s="89"/>
       <c r="Q62" s="46"/>
       <c r="R62" s="46"/>
       <c r="S62" s="47"/>
@@ -3493,248 +3493,248 @@
       <c r="S63" s="49"/>
     </row>
     <row r="64" spans="2:21" ht="12" customHeight="1">
-      <c r="B64" s="135" t="s">
+      <c r="B64" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="136"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="136"/>
-      <c r="F64" s="136"/>
-      <c r="G64" s="136"/>
-      <c r="H64" s="136"/>
-      <c r="I64" s="136"/>
-      <c r="J64" s="136"/>
-      <c r="K64" s="136"/>
-      <c r="L64" s="136"/>
-      <c r="M64" s="136"/>
-      <c r="N64" s="136"/>
-      <c r="O64" s="136"/>
-      <c r="P64" s="136"/>
-      <c r="Q64" s="136"/>
-      <c r="R64" s="136"/>
-      <c r="S64" s="137"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
+      <c r="Q64" s="84"/>
+      <c r="R64" s="84"/>
+      <c r="S64" s="85"/>
     </row>
     <row r="65" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B65" s="149" t="s">
+      <c r="B65" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="150"/>
-      <c r="D65" s="150"/>
-      <c r="E65" s="150"/>
-      <c r="F65" s="150"/>
-      <c r="G65" s="150"/>
-      <c r="H65" s="150"/>
-      <c r="I65" s="150"/>
-      <c r="J65" s="150"/>
-      <c r="K65" s="150"/>
-      <c r="L65" s="150"/>
-      <c r="M65" s="150"/>
-      <c r="N65" s="150"/>
-      <c r="O65" s="150"/>
-      <c r="P65" s="150"/>
-      <c r="Q65" s="150"/>
-      <c r="R65" s="150"/>
-      <c r="S65" s="153"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="87"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="87"/>
+      <c r="I65" s="87"/>
+      <c r="J65" s="87"/>
+      <c r="K65" s="87"/>
+      <c r="L65" s="87"/>
+      <c r="M65" s="87"/>
+      <c r="N65" s="87"/>
+      <c r="O65" s="87"/>
+      <c r="P65" s="87"/>
+      <c r="Q65" s="87"/>
+      <c r="R65" s="87"/>
+      <c r="S65" s="90"/>
     </row>
     <row r="66" spans="2:23" ht="14.25" customHeight="1">
-      <c r="B66" s="149"/>
-      <c r="C66" s="150"/>
-      <c r="D66" s="150"/>
-      <c r="E66" s="150"/>
-      <c r="F66" s="150"/>
-      <c r="G66" s="150"/>
-      <c r="H66" s="150"/>
-      <c r="I66" s="150"/>
-      <c r="J66" s="150"/>
-      <c r="K66" s="150"/>
-      <c r="L66" s="150"/>
-      <c r="M66" s="150"/>
-      <c r="N66" s="150"/>
-      <c r="O66" s="150"/>
-      <c r="P66" s="150"/>
-      <c r="Q66" s="150"/>
-      <c r="R66" s="150"/>
-      <c r="S66" s="153"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="87"/>
+      <c r="L66" s="87"/>
+      <c r="M66" s="87"/>
+      <c r="N66" s="87"/>
+      <c r="O66" s="87"/>
+      <c r="P66" s="87"/>
+      <c r="Q66" s="87"/>
+      <c r="R66" s="87"/>
+      <c r="S66" s="90"/>
     </row>
     <row r="67" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B67" s="149"/>
-      <c r="C67" s="150"/>
-      <c r="D67" s="150"/>
-      <c r="E67" s="150"/>
-      <c r="F67" s="150"/>
-      <c r="G67" s="150"/>
-      <c r="H67" s="150"/>
-      <c r="I67" s="150"/>
-      <c r="J67" s="150"/>
-      <c r="K67" s="150"/>
-      <c r="L67" s="150"/>
-      <c r="M67" s="150"/>
-      <c r="N67" s="150"/>
-      <c r="O67" s="150"/>
-      <c r="P67" s="150"/>
-      <c r="Q67" s="150"/>
-      <c r="R67" s="150"/>
-      <c r="S67" s="153"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="87"/>
+      <c r="J67" s="87"/>
+      <c r="K67" s="87"/>
+      <c r="L67" s="87"/>
+      <c r="M67" s="87"/>
+      <c r="N67" s="87"/>
+      <c r="O67" s="87"/>
+      <c r="P67" s="87"/>
+      <c r="Q67" s="87"/>
+      <c r="R67" s="87"/>
+      <c r="S67" s="90"/>
     </row>
     <row r="68" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B68" s="149"/>
-      <c r="C68" s="150"/>
-      <c r="D68" s="150"/>
-      <c r="E68" s="150"/>
-      <c r="F68" s="150"/>
-      <c r="G68" s="150"/>
-      <c r="H68" s="150"/>
-      <c r="I68" s="150"/>
-      <c r="J68" s="150"/>
-      <c r="K68" s="150"/>
-      <c r="L68" s="150"/>
-      <c r="M68" s="150"/>
-      <c r="N68" s="150"/>
-      <c r="O68" s="150"/>
-      <c r="P68" s="150"/>
-      <c r="Q68" s="150"/>
-      <c r="R68" s="150"/>
-      <c r="S68" s="153"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="87"/>
+      <c r="J68" s="87"/>
+      <c r="K68" s="87"/>
+      <c r="L68" s="87"/>
+      <c r="M68" s="87"/>
+      <c r="N68" s="87"/>
+      <c r="O68" s="87"/>
+      <c r="P68" s="87"/>
+      <c r="Q68" s="87"/>
+      <c r="R68" s="87"/>
+      <c r="S68" s="90"/>
     </row>
     <row r="69" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B69" s="149"/>
-      <c r="C69" s="150"/>
-      <c r="D69" s="150"/>
-      <c r="E69" s="150"/>
-      <c r="F69" s="150"/>
-      <c r="G69" s="150"/>
-      <c r="H69" s="150"/>
-      <c r="I69" s="150"/>
-      <c r="J69" s="150"/>
-      <c r="K69" s="150"/>
-      <c r="L69" s="150"/>
-      <c r="M69" s="150"/>
-      <c r="N69" s="150"/>
-      <c r="O69" s="150"/>
-      <c r="P69" s="150"/>
-      <c r="Q69" s="150"/>
-      <c r="R69" s="150"/>
-      <c r="S69" s="153"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87"/>
+      <c r="H69" s="87"/>
+      <c r="I69" s="87"/>
+      <c r="J69" s="87"/>
+      <c r="K69" s="87"/>
+      <c r="L69" s="87"/>
+      <c r="M69" s="87"/>
+      <c r="N69" s="87"/>
+      <c r="O69" s="87"/>
+      <c r="P69" s="87"/>
+      <c r="Q69" s="87"/>
+      <c r="R69" s="87"/>
+      <c r="S69" s="90"/>
     </row>
     <row r="70" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B70" s="149"/>
-      <c r="C70" s="150"/>
-      <c r="D70" s="150"/>
-      <c r="E70" s="150"/>
-      <c r="F70" s="150"/>
-      <c r="G70" s="150"/>
-      <c r="H70" s="150"/>
-      <c r="I70" s="150"/>
-      <c r="J70" s="150"/>
-      <c r="K70" s="150"/>
-      <c r="L70" s="150"/>
-      <c r="M70" s="150"/>
-      <c r="N70" s="150"/>
-      <c r="O70" s="150"/>
-      <c r="P70" s="150"/>
-      <c r="Q70" s="150"/>
-      <c r="R70" s="150"/>
-      <c r="S70" s="153"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="87"/>
+      <c r="G70" s="87"/>
+      <c r="H70" s="87"/>
+      <c r="I70" s="87"/>
+      <c r="J70" s="87"/>
+      <c r="K70" s="87"/>
+      <c r="L70" s="87"/>
+      <c r="M70" s="87"/>
+      <c r="N70" s="87"/>
+      <c r="O70" s="87"/>
+      <c r="P70" s="87"/>
+      <c r="Q70" s="87"/>
+      <c r="R70" s="87"/>
+      <c r="S70" s="90"/>
     </row>
     <row r="71" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B71" s="149"/>
-      <c r="C71" s="150"/>
-      <c r="D71" s="150"/>
-      <c r="E71" s="150"/>
-      <c r="F71" s="150"/>
-      <c r="G71" s="150"/>
-      <c r="H71" s="150"/>
-      <c r="I71" s="150"/>
-      <c r="J71" s="150"/>
-      <c r="K71" s="150"/>
-      <c r="L71" s="150"/>
-      <c r="M71" s="150"/>
-      <c r="N71" s="150"/>
-      <c r="O71" s="150"/>
-      <c r="P71" s="150"/>
-      <c r="Q71" s="150"/>
-      <c r="R71" s="150"/>
-      <c r="S71" s="153"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="87"/>
+      <c r="K71" s="87"/>
+      <c r="L71" s="87"/>
+      <c r="M71" s="87"/>
+      <c r="N71" s="87"/>
+      <c r="O71" s="87"/>
+      <c r="P71" s="87"/>
+      <c r="Q71" s="87"/>
+      <c r="R71" s="87"/>
+      <c r="S71" s="90"/>
     </row>
     <row r="72" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B72" s="149"/>
-      <c r="C72" s="150"/>
-      <c r="D72" s="150"/>
-      <c r="E72" s="150"/>
-      <c r="F72" s="150"/>
-      <c r="G72" s="150"/>
-      <c r="H72" s="150"/>
-      <c r="I72" s="150"/>
-      <c r="J72" s="150"/>
-      <c r="K72" s="150"/>
-      <c r="L72" s="150"/>
-      <c r="M72" s="150"/>
-      <c r="N72" s="150"/>
-      <c r="O72" s="150"/>
-      <c r="P72" s="150"/>
-      <c r="Q72" s="150"/>
-      <c r="R72" s="150"/>
-      <c r="S72" s="153"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
+      <c r="H72" s="87"/>
+      <c r="I72" s="87"/>
+      <c r="J72" s="87"/>
+      <c r="K72" s="87"/>
+      <c r="L72" s="87"/>
+      <c r="M72" s="87"/>
+      <c r="N72" s="87"/>
+      <c r="O72" s="87"/>
+      <c r="P72" s="87"/>
+      <c r="Q72" s="87"/>
+      <c r="R72" s="87"/>
+      <c r="S72" s="90"/>
     </row>
     <row r="73" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B73" s="149"/>
-      <c r="C73" s="150"/>
-      <c r="D73" s="150"/>
-      <c r="E73" s="150"/>
-      <c r="F73" s="150"/>
-      <c r="G73" s="150"/>
-      <c r="H73" s="150"/>
-      <c r="I73" s="150"/>
-      <c r="J73" s="150"/>
-      <c r="K73" s="150"/>
-      <c r="L73" s="150"/>
-      <c r="M73" s="150"/>
-      <c r="N73" s="150"/>
-      <c r="O73" s="150"/>
-      <c r="P73" s="150"/>
-      <c r="Q73" s="150"/>
-      <c r="R73" s="150"/>
-      <c r="S73" s="153"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="87"/>
+      <c r="I73" s="87"/>
+      <c r="J73" s="87"/>
+      <c r="K73" s="87"/>
+      <c r="L73" s="87"/>
+      <c r="M73" s="87"/>
+      <c r="N73" s="87"/>
+      <c r="O73" s="87"/>
+      <c r="P73" s="87"/>
+      <c r="Q73" s="87"/>
+      <c r="R73" s="87"/>
+      <c r="S73" s="90"/>
     </row>
     <row r="74" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B74" s="149"/>
-      <c r="C74" s="150"/>
-      <c r="D74" s="150"/>
-      <c r="E74" s="150"/>
-      <c r="F74" s="150"/>
-      <c r="G74" s="150"/>
-      <c r="H74" s="150"/>
-      <c r="I74" s="150"/>
-      <c r="J74" s="150"/>
-      <c r="K74" s="150"/>
-      <c r="L74" s="150"/>
-      <c r="M74" s="150"/>
-      <c r="N74" s="150"/>
-      <c r="O74" s="150"/>
-      <c r="P74" s="150"/>
-      <c r="Q74" s="150"/>
-      <c r="R74" s="150"/>
-      <c r="S74" s="153"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="87"/>
+      <c r="J74" s="87"/>
+      <c r="K74" s="87"/>
+      <c r="L74" s="87"/>
+      <c r="M74" s="87"/>
+      <c r="N74" s="87"/>
+      <c r="O74" s="87"/>
+      <c r="P74" s="87"/>
+      <c r="Q74" s="87"/>
+      <c r="R74" s="87"/>
+      <c r="S74" s="90"/>
     </row>
     <row r="75" spans="2:23" ht="11.25" customHeight="1">
-      <c r="B75" s="149"/>
-      <c r="C75" s="150"/>
-      <c r="D75" s="150"/>
-      <c r="E75" s="150"/>
-      <c r="F75" s="150"/>
-      <c r="G75" s="150"/>
-      <c r="H75" s="150"/>
-      <c r="I75" s="150"/>
-      <c r="J75" s="150"/>
-      <c r="K75" s="150"/>
-      <c r="L75" s="150"/>
-      <c r="M75" s="150"/>
-      <c r="N75" s="150"/>
-      <c r="O75" s="150"/>
-      <c r="P75" s="150"/>
-      <c r="Q75" s="150"/>
-      <c r="R75" s="150"/>
-      <c r="S75" s="153"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="87"/>
+      <c r="J75" s="87"/>
+      <c r="K75" s="87"/>
+      <c r="L75" s="87"/>
+      <c r="M75" s="87"/>
+      <c r="N75" s="87"/>
+      <c r="O75" s="87"/>
+      <c r="P75" s="87"/>
+      <c r="Q75" s="87"/>
+      <c r="R75" s="87"/>
+      <c r="S75" s="90"/>
     </row>
     <row r="76" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
       <c r="B76" s="50"/>
@@ -3760,25 +3760,25 @@
       <c r="W76" s="54"/>
     </row>
     <row r="77" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B77" s="154" t="s">
+      <c r="B77" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="155"/>
-      <c r="D77" s="156"/>
-      <c r="E77" s="156"/>
-      <c r="F77" s="156"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="156"/>
-      <c r="I77" s="156"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="93"/>
       <c r="J77" s="51"/>
       <c r="K77" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="L77" s="157">
+      <c r="L77" s="94">
         <f ca="1">TODAY()</f>
         <v>42327</v>
       </c>
-      <c r="M77" s="157"/>
+      <c r="M77" s="94"/>
       <c r="N77" s="51"/>
       <c r="O77" s="51"/>
       <c r="P77" s="51"/>
@@ -3813,16 +3813,16 @@
       <c r="W78" s="54"/>
     </row>
     <row r="79" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B79" s="154" t="s">
+      <c r="B79" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="155"/>
-      <c r="D79" s="158"/>
-      <c r="E79" s="158"/>
-      <c r="F79" s="158"/>
-      <c r="G79" s="158"/>
-      <c r="H79" s="158"/>
-      <c r="I79" s="158"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="95"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="95"/>
+      <c r="I79" s="95"/>
       <c r="J79" s="55"/>
       <c r="K79" s="51"/>
       <c r="L79" s="51"/>
@@ -3884,16 +3884,16 @@
       <c r="W81" s="54"/>
     </row>
     <row r="82" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B82" s="154" t="s">
+      <c r="B82" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="155"/>
-      <c r="D82" s="159"/>
-      <c r="E82" s="159"/>
-      <c r="F82" s="159"/>
-      <c r="G82" s="159"/>
-      <c r="H82" s="159"/>
-      <c r="I82" s="159"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="96"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="96"/>
+      <c r="G82" s="96"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="96"/>
       <c r="J82" s="55"/>
       <c r="K82" s="51" t="s">
         <v>50</v>
@@ -3911,10 +3911,10 @@
       <c r="W82" s="54"/>
     </row>
     <row r="83" spans="2:23" s="53" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="B83" s="160"/>
-      <c r="C83" s="161"/>
-      <c r="D83" s="161"/>
-      <c r="E83" s="161"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
       <c r="F83" s="58"/>
       <c r="G83" s="58"/>
       <c r="H83" s="58"/>
@@ -3957,24 +3957,24 @@
       <c r="W84" s="54"/>
     </row>
     <row r="85" spans="2:23" ht="36.75" customHeight="1">
-      <c r="B85" s="142"/>
-      <c r="C85" s="142"/>
-      <c r="D85" s="142"/>
-      <c r="E85" s="142"/>
-      <c r="F85" s="142"/>
-      <c r="G85" s="142"/>
-      <c r="H85" s="142"/>
-      <c r="I85" s="142"/>
-      <c r="J85" s="142"/>
-      <c r="K85" s="142"/>
-      <c r="L85" s="142"/>
-      <c r="M85" s="142"/>
-      <c r="N85" s="142"/>
-      <c r="O85" s="142"/>
-      <c r="P85" s="142"/>
-      <c r="Q85" s="142"/>
-      <c r="R85" s="142"/>
-      <c r="S85" s="142"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="76"/>
+      <c r="M85" s="76"/>
+      <c r="N85" s="76"/>
+      <c r="O85" s="76"/>
+      <c r="P85" s="76"/>
+      <c r="Q85" s="76"/>
+      <c r="R85" s="76"/>
+      <c r="S85" s="76"/>
     </row>
     <row r="86" spans="2:23" ht="12.75" customHeight="1"/>
     <row r="88" spans="2:23" hidden="1"/>
@@ -4286,6 +4286,75 @@
     <row r="155" hidden="1"/>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:S3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:S5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:S7"/>
+    <mergeCell ref="D19:S19"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:S9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:S11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:S13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:Q15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:S17"/>
+    <mergeCell ref="M27:O28"/>
+    <mergeCell ref="P27:R28"/>
+    <mergeCell ref="B21:S21"/>
+    <mergeCell ref="B22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D24:R24"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="D26:R26"/>
+    <mergeCell ref="G33:I34"/>
+    <mergeCell ref="J33:L34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="G29:I30"/>
+    <mergeCell ref="J29:L30"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J27:L28"/>
+    <mergeCell ref="P29:R30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:I32"/>
+    <mergeCell ref="J31:L32"/>
+    <mergeCell ref="M31:O32"/>
+    <mergeCell ref="P31:R32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="M29:O30"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="M33:O34"/>
+    <mergeCell ref="B53:R53"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F36"/>
+    <mergeCell ref="G35:I36"/>
+    <mergeCell ref="J35:L36"/>
+    <mergeCell ref="M35:O36"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:S38"/>
+    <mergeCell ref="B41:S41"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F34"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="U45:U46"/>
     <mergeCell ref="B47:R48"/>
@@ -4302,75 +4371,6 @@
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="D79:I79"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="M33:O34"/>
-    <mergeCell ref="B53:R53"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F36"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="J35:L36"/>
-    <mergeCell ref="M35:O36"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:S38"/>
-    <mergeCell ref="B41:S41"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="P29:R30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:I32"/>
-    <mergeCell ref="J31:L32"/>
-    <mergeCell ref="M31:O32"/>
-    <mergeCell ref="P31:R32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="M29:O30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F34"/>
-    <mergeCell ref="G33:I34"/>
-    <mergeCell ref="J33:L34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="G29:I30"/>
-    <mergeCell ref="J29:L30"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J27:L28"/>
-    <mergeCell ref="M27:O28"/>
-    <mergeCell ref="P27:R28"/>
-    <mergeCell ref="B21:S21"/>
-    <mergeCell ref="B22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="D24:R24"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="D26:R26"/>
-    <mergeCell ref="D19:S19"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:S9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:S11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:S13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:Q15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:S17"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:S3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:S5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:S7"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S45 S53:S54 S47 S51 S49">
